--- a/JupyterNotebooks/AvgHW/SA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -710,28 +662,28 @@
         <v>1.000016339198274</v>
       </c>
       <c r="F3">
+        <v>0.9999869307455171</v>
+      </c>
+      <c r="G3">
+        <v>0.999934649597134</v>
+      </c>
+      <c r="H3">
+        <v>0.9999575110231653</v>
+      </c>
+      <c r="I3">
+        <v>1.000016339198274</v>
+      </c>
+      <c r="J3">
+        <v>1.000024257019314</v>
+      </c>
+      <c r="K3">
+        <v>0.9999859595111675</v>
+      </c>
+      <c r="L3">
         <v>1.000043566890628</v>
       </c>
-      <c r="G3">
-        <v>0.9999859595111675</v>
-      </c>
-      <c r="H3">
-        <v>1.000024257019314</v>
-      </c>
-      <c r="I3">
+      <c r="M3">
         <v>1.000043566890628</v>
-      </c>
-      <c r="J3">
-        <v>0.999934649597134</v>
-      </c>
-      <c r="K3">
-        <v>0.9999869307455171</v>
-      </c>
-      <c r="L3">
-        <v>1.000016339198274</v>
-      </c>
-      <c r="M3">
-        <v>0.9999575110231653</v>
       </c>
       <c r="N3">
         <v>1.000043566890628</v>
@@ -764,7 +716,7 @@
         <v>0.9999956941479344</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -781,28 +733,28 @@
         <v>1.00003154180094</v>
       </c>
       <c r="F4">
+        <v>0.999974770014075</v>
+      </c>
+      <c r="G4">
+        <v>0.9998738430402672</v>
+      </c>
+      <c r="H4">
+        <v>0.9999179742579268</v>
+      </c>
+      <c r="I4">
+        <v>1.00003154180094</v>
+      </c>
+      <c r="J4">
+        <v>1.000046828368588</v>
+      </c>
+      <c r="K4">
+        <v>0.9999728937080901</v>
+      </c>
+      <c r="L4">
         <v>1.000084104699112</v>
       </c>
-      <c r="G4">
-        <v>0.9999728937080901</v>
-      </c>
-      <c r="H4">
-        <v>1.000046828368588</v>
-      </c>
-      <c r="I4">
+      <c r="M4">
         <v>1.000084104699112</v>
-      </c>
-      <c r="J4">
-        <v>0.9998738430402672</v>
-      </c>
-      <c r="K4">
-        <v>0.999974770014075</v>
-      </c>
-      <c r="L4">
-        <v>1.00003154180094</v>
-      </c>
-      <c r="M4">
-        <v>0.9999179742579268</v>
       </c>
       <c r="N4">
         <v>1.000084104699112</v>
@@ -835,7 +787,7 @@
         <v>0.9999916872112424</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.000161173201407</v>
       </c>
       <c r="D5">
-        <v>0.9997582390027377</v>
+        <v>0.9997582390027382</v>
       </c>
       <c r="E5">
         <v>1.00006044325276</v>
       </c>
       <c r="F5">
+        <v>0.9999516501987257</v>
+      </c>
+      <c r="G5">
+        <v>0.9997582390027382</v>
+      </c>
+      <c r="H5">
+        <v>0.9998428000859754</v>
+      </c>
+      <c r="I5">
+        <v>1.00006044325276</v>
+      </c>
+      <c r="J5">
+        <v>1.00008974248917</v>
+      </c>
+      <c r="K5">
+        <v>0.9999480554662852</v>
+      </c>
+      <c r="L5">
         <v>1.000161173201407</v>
       </c>
-      <c r="G5">
-        <v>0.999948055466285</v>
-      </c>
-      <c r="H5">
-        <v>1.00008974248917</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>1.000161173201407</v>
-      </c>
-      <c r="J5">
-        <v>0.9997582390027377</v>
-      </c>
-      <c r="K5">
-        <v>0.9999516501987257</v>
-      </c>
-      <c r="L5">
-        <v>1.00006044325276</v>
-      </c>
-      <c r="M5">
-        <v>0.9998428000859754</v>
       </c>
       <c r="N5">
         <v>1.000161173201407</v>
@@ -882,7 +834,7 @@
         <v>1.00006044325276</v>
       </c>
       <c r="P5">
-        <v>0.9999093411277488</v>
+        <v>0.999909341127749</v>
       </c>
       <c r="Q5">
         <v>1.000004249359522</v>
@@ -891,22 +843,22 @@
         <v>0.9999932851523017</v>
       </c>
       <c r="S5">
-        <v>0.9999222459072609</v>
+        <v>0.9999222459072611</v>
       </c>
       <c r="T5">
         <v>0.9999932851523017</v>
       </c>
       <c r="U5">
-        <v>0.9999819777307974</v>
+        <v>0.9999819777307976</v>
       </c>
       <c r="V5">
-        <v>1.000017816824919</v>
+        <v>1.00001781682492</v>
       </c>
       <c r="W5">
-        <v>0.9999840683687276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9999840683687277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,28 +875,28 @@
         <v>1.000088653723104</v>
       </c>
       <c r="F6">
+        <v>0.9999290867128668</v>
+      </c>
+      <c r="G6">
+        <v>0.9996454187910688</v>
+      </c>
+      <c r="H6">
+        <v>0.9997694492837572</v>
+      </c>
+      <c r="I6">
+        <v>1.000088653723104</v>
+      </c>
+      <c r="J6">
+        <v>1.000131618391177</v>
+      </c>
+      <c r="K6">
+        <v>0.9999238107271923</v>
+      </c>
+      <c r="L6">
         <v>1.000236392227664</v>
       </c>
-      <c r="G6">
-        <v>0.9999238107271923</v>
-      </c>
-      <c r="H6">
-        <v>1.000131618391177</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>1.000236392227664</v>
-      </c>
-      <c r="J6">
-        <v>0.9996454187910688</v>
-      </c>
-      <c r="K6">
-        <v>0.9999290867128668</v>
-      </c>
-      <c r="L6">
-        <v>1.000088653723104</v>
-      </c>
-      <c r="M6">
-        <v>0.9997694492837572</v>
       </c>
       <c r="N6">
         <v>1.000236392227664</v>
@@ -977,7 +929,7 @@
         <v>0.9999766354474919</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -994,28 +946,28 @@
         <v>1.000001352110798</v>
       </c>
       <c r="F7">
+        <v>0.999998919519446</v>
+      </c>
+      <c r="G7">
+        <v>0.9999945947597488</v>
+      </c>
+      <c r="H7">
+        <v>0.9999964879052931</v>
+      </c>
+      <c r="I7">
+        <v>1.000001352110798</v>
+      </c>
+      <c r="J7">
+        <v>1.000002005778389</v>
+      </c>
+      <c r="K7">
+        <v>0.999998840173527</v>
+      </c>
+      <c r="L7">
         <v>1.000003603366522</v>
       </c>
-      <c r="G7">
-        <v>0.999998840173527</v>
-      </c>
-      <c r="H7">
-        <v>1.000002005778389</v>
-      </c>
-      <c r="I7">
+      <c r="M7">
         <v>1.000003603366522</v>
-      </c>
-      <c r="J7">
-        <v>0.9999945947597488</v>
-      </c>
-      <c r="K7">
-        <v>0.999998919519446</v>
-      </c>
-      <c r="L7">
-        <v>1.000001352110798</v>
-      </c>
-      <c r="M7">
-        <v>0.9999964879052931</v>
       </c>
       <c r="N7">
         <v>1.000003603366522</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999996444655653</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,34 +1011,34 @@
         <v>1.000010411964829</v>
       </c>
       <c r="D8">
-        <v>0.999984382013713</v>
+        <v>0.9999843820137128</v>
       </c>
       <c r="E8">
         <v>1.000003905342551</v>
       </c>
       <c r="F8">
+        <v>0.9999968769057203</v>
+      </c>
+      <c r="G8">
+        <v>0.9999843820137128</v>
+      </c>
+      <c r="H8">
+        <v>0.9999898475505646</v>
+      </c>
+      <c r="I8">
+        <v>1.000003905342551</v>
+      </c>
+      <c r="J8">
+        <v>1.000005796625829</v>
+      </c>
+      <c r="K8">
+        <v>0.9999966456822384</v>
+      </c>
+      <c r="L8">
         <v>1.000010411964829</v>
       </c>
-      <c r="G8">
-        <v>0.9999966456822384</v>
-      </c>
-      <c r="H8">
-        <v>1.000005796625829</v>
-      </c>
-      <c r="I8">
+      <c r="M8">
         <v>1.000010411964829</v>
-      </c>
-      <c r="J8">
-        <v>0.999984382013713</v>
-      </c>
-      <c r="K8">
-        <v>0.9999968769057203</v>
-      </c>
-      <c r="L8">
-        <v>1.000003905342551</v>
-      </c>
-      <c r="M8">
-        <v>0.9999898475505646</v>
       </c>
       <c r="N8">
         <v>1.000010411964829</v>
@@ -1095,7 +1047,7 @@
         <v>1.000003905342551</v>
       </c>
       <c r="P8">
-        <v>0.9999941436781319</v>
+        <v>0.9999941436781317</v>
       </c>
       <c r="Q8">
         <v>1.000000275512395</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999989714284995</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1136,28 +1088,28 @@
         <v>1.0000058116581</v>
       </c>
       <c r="F9">
+        <v>0.9999953518724848</v>
+      </c>
+      <c r="G9">
+        <v>0.9999767547500679</v>
+      </c>
+      <c r="H9">
+        <v>0.9999848880267788</v>
+      </c>
+      <c r="I9">
+        <v>1.0000058116581</v>
+      </c>
+      <c r="J9">
+        <v>1.000008627884456</v>
+      </c>
+      <c r="K9">
+        <v>0.9999950068047972</v>
+      </c>
+      <c r="L9">
         <v>1.000015496252225</v>
       </c>
-      <c r="G9">
-        <v>0.9999950068047972</v>
-      </c>
-      <c r="H9">
-        <v>1.000008627884456</v>
-      </c>
-      <c r="I9">
+      <c r="M9">
         <v>1.000015496252225</v>
-      </c>
-      <c r="J9">
-        <v>0.9999767547500679</v>
-      </c>
-      <c r="K9">
-        <v>0.9999953518724848</v>
-      </c>
-      <c r="L9">
-        <v>1.0000058116581</v>
-      </c>
-      <c r="M9">
-        <v>0.9999848880267788</v>
       </c>
       <c r="N9">
         <v>1.000015496252225</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999984686133763</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1207,28 +1159,28 @@
         <v>1.000012196150037</v>
       </c>
       <c r="F10">
+        <v>0.9999902448243931</v>
+      </c>
+      <c r="G10">
+        <v>0.9999512206181743</v>
+      </c>
+      <c r="H10">
+        <v>0.9999682854163462</v>
+      </c>
+      <c r="I10">
+        <v>1.000012196150037</v>
+      </c>
+      <c r="J10">
+        <v>1.000018106419505</v>
+      </c>
+      <c r="K10">
+        <v>0.999989521091859</v>
+      </c>
+      <c r="L10">
         <v>1.00003251845385</v>
       </c>
-      <c r="G10">
-        <v>0.9999895210918589</v>
-      </c>
-      <c r="H10">
-        <v>1.000018106419505</v>
-      </c>
-      <c r="I10">
+      <c r="M10">
         <v>1.00003251845385</v>
-      </c>
-      <c r="J10">
-        <v>0.9999512206181743</v>
-      </c>
-      <c r="K10">
-        <v>0.9999902448243931</v>
-      </c>
-      <c r="L10">
-        <v>1.000012196150037</v>
-      </c>
-      <c r="M10">
-        <v>0.9999682854163462</v>
       </c>
       <c r="N10">
         <v>1.00003251845385</v>
@@ -1258,10 +1210,10 @@
         <v>1.000003594953554</v>
       </c>
       <c r="W10">
-        <v>0.9999967861405252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9999967861405251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1278,28 +1230,28 @@
         <v>1.000021206794479</v>
       </c>
       <c r="F11">
+        <v>0.9999830362727102</v>
+      </c>
+      <c r="G11">
+        <v>0.9999151747659947</v>
+      </c>
+      <c r="H11">
+        <v>0.9999448485343139</v>
+      </c>
+      <c r="I11">
+        <v>1.000021206794479</v>
+      </c>
+      <c r="J11">
+        <v>1.000031486194269</v>
+      </c>
+      <c r="K11">
+        <v>0.9999817740268444</v>
+      </c>
+      <c r="L11">
         <v>1.000056549525137</v>
       </c>
-      <c r="G11">
-        <v>0.9999817740268444</v>
-      </c>
-      <c r="H11">
-        <v>1.000031486194269</v>
-      </c>
-      <c r="I11">
+      <c r="M11">
         <v>1.000056549525137</v>
-      </c>
-      <c r="J11">
-        <v>0.9999151747659947</v>
-      </c>
-      <c r="K11">
-        <v>0.9999830362727102</v>
-      </c>
-      <c r="L11">
-        <v>1.000021206794479</v>
-      </c>
-      <c r="M11">
-        <v>0.9999448485343136</v>
       </c>
       <c r="N11">
         <v>1.000056549525137</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999944103635283</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1349,28 +1301,28 @@
         <v>0.9997653092945696</v>
       </c>
       <c r="F12">
+        <v>1.000187750242171</v>
+      </c>
+      <c r="G12">
+        <v>1.000938762023138</v>
+      </c>
+      <c r="H12">
+        <v>1.000610391009779</v>
+      </c>
+      <c r="I12">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="J12">
+        <v>0.9996515416410945</v>
+      </c>
+      <c r="K12">
+        <v>1.000201720479163</v>
+      </c>
+      <c r="L12">
         <v>0.9993741563426508</v>
       </c>
-      <c r="G12">
-        <v>1.000201720479163</v>
-      </c>
-      <c r="H12">
-        <v>0.9996515416410945</v>
-      </c>
-      <c r="I12">
+      <c r="M12">
         <v>0.9993741563426508</v>
-      </c>
-      <c r="J12">
-        <v>1.000938762023138</v>
-      </c>
-      <c r="K12">
-        <v>1.000187750242171</v>
-      </c>
-      <c r="L12">
-        <v>0.9997653092945696</v>
-      </c>
-      <c r="M12">
-        <v>1.000610391009779</v>
       </c>
       <c r="N12">
         <v>0.9993741563426508</v>
@@ -1403,7 +1355,7 @@
         <v>1.000061867540892</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1420,28 +1372,28 @@
         <v>0.9999391702538896</v>
       </c>
       <c r="F13">
+        <v>1.000048665987001</v>
+      </c>
+      <c r="G13">
+        <v>1.000243323193166</v>
+      </c>
+      <c r="H13">
+        <v>1.000158218555874</v>
+      </c>
+      <c r="I13">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="J13">
+        <v>0.9999096834577995</v>
+      </c>
+      <c r="K13">
+        <v>1.000052289871308</v>
+      </c>
+      <c r="L13">
         <v>0.9998377853168013</v>
       </c>
-      <c r="G13">
-        <v>1.000052289871308</v>
-      </c>
-      <c r="H13">
-        <v>0.9999096834577995</v>
-      </c>
-      <c r="I13">
+      <c r="M13">
         <v>0.9998377853168013</v>
-      </c>
-      <c r="J13">
-        <v>1.000243323193166</v>
-      </c>
-      <c r="K13">
-        <v>1.000048665987001</v>
-      </c>
-      <c r="L13">
-        <v>0.9999391702538896</v>
-      </c>
-      <c r="M13">
-        <v>1.000158218555874</v>
       </c>
       <c r="N13">
         <v>0.9998377853168013</v>
@@ -1474,7 +1426,7 @@
         <v>1.000016038361216</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,49 +1434,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999974633047399</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="D14">
         <v>1.000003795180401</v>
       </c>
       <c r="E14">
-        <v>0.9999990494506928</v>
+        <v>0.9999990494506927</v>
       </c>
       <c r="F14">
-        <v>0.9999974633047399</v>
+        <v>1.000000760577882</v>
       </c>
       <c r="G14">
+        <v>1.000003795180401</v>
+      </c>
+      <c r="H14">
+        <v>1.000002475634174</v>
+      </c>
+      <c r="I14">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="J14">
+        <v>0.9999985817290312</v>
+      </c>
+      <c r="K14">
         <v>1.000000829405617</v>
       </c>
-      <c r="H14">
-        <v>0.9999985817290312</v>
-      </c>
-      <c r="I14">
-        <v>0.9999974633047399</v>
-      </c>
-      <c r="J14">
-        <v>1.000003795180401</v>
-      </c>
-      <c r="K14">
-        <v>1.000000760577882</v>
-      </c>
       <c r="L14">
-        <v>0.9999990494506928</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="M14">
-        <v>1.000002475634174</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="N14">
-        <v>0.9999974633047399</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="O14">
-        <v>0.9999990494506928</v>
+        <v>0.9999990494506927</v>
       </c>
       <c r="P14">
         <v>1.000001422315547</v>
       </c>
       <c r="Q14">
-        <v>0.9999999394281549</v>
+        <v>0.9999999394281548</v>
       </c>
       <c r="R14">
         <v>1.000000102645278</v>
@@ -1536,16 +1488,16 @@
         <v>1.000000102645278</v>
       </c>
       <c r="U14">
-        <v>1.000000284335363</v>
+        <v>1.000000284335362</v>
       </c>
       <c r="V14">
-        <v>0.9999997201292381</v>
+        <v>0.9999997201292377</v>
       </c>
       <c r="W14">
         <v>1.000000250591654</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1562,28 +1514,28 @@
         <v>1.000000246945577</v>
       </c>
       <c r="F15">
+        <v>0.9999997961638373</v>
+      </c>
+      <c r="G15">
+        <v>0.9999990055467399</v>
+      </c>
+      <c r="H15">
+        <v>0.999999352278692</v>
+      </c>
+      <c r="I15">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="J15">
+        <v>1.00000036595987</v>
+      </c>
+      <c r="K15">
+        <v>0.9999997910152201</v>
+      </c>
+      <c r="L15">
         <v>1.000000664119448</v>
       </c>
-      <c r="G15">
-        <v>0.9999997910152201</v>
-      </c>
-      <c r="H15">
-        <v>1.00000036595987</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>1.000000664119448</v>
-      </c>
-      <c r="J15">
-        <v>0.9999990055467399</v>
-      </c>
-      <c r="K15">
-        <v>0.9999997961638373</v>
-      </c>
-      <c r="L15">
-        <v>1.000000246945577</v>
-      </c>
-      <c r="M15">
-        <v>0.9999993522786919</v>
       </c>
       <c r="N15">
         <v>1.000000664119448</v>
@@ -1616,7 +1568,7 @@
         <v>0.9999999336218701</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000180556734</v>
+        <v>1.000850065853676</v>
       </c>
       <c r="D16">
-        <v>0.999999728956425</v>
+        <v>0.9987249020272994</v>
       </c>
       <c r="E16">
-        <v>1.000000068661215</v>
+        <v>1.000318784788647</v>
       </c>
       <c r="F16">
-        <v>1.000000180556734</v>
+        <v>0.9997449834724919</v>
       </c>
       <c r="G16">
-        <v>0.9999999433282843</v>
+        <v>0.9987249020272994</v>
       </c>
       <c r="H16">
-        <v>1.000000100301913</v>
+        <v>0.9991709224168451</v>
       </c>
       <c r="I16">
-        <v>1.000000180556734</v>
+        <v>1.000318784788647</v>
       </c>
       <c r="J16">
-        <v>0.999999728956425</v>
+        <v>1.000473302140348</v>
       </c>
       <c r="K16">
-        <v>0.9999999463856302</v>
+        <v>0.9997260152176012</v>
       </c>
       <c r="L16">
-        <v>1.000000068661215</v>
+        <v>1.000850065853676</v>
       </c>
       <c r="M16">
-        <v>0.9999998262910793</v>
+        <v>1.000850065853676</v>
       </c>
       <c r="N16">
-        <v>1.000000180556734</v>
+        <v>1.000850065853676</v>
       </c>
       <c r="O16">
-        <v>1.000000068661215</v>
+        <v>1.000318784788647</v>
       </c>
       <c r="P16">
-        <v>0.9999998988088199</v>
+        <v>0.9995218434079731</v>
       </c>
       <c r="Q16">
-        <v>1.00000000599475</v>
+        <v>1.000022400003124</v>
       </c>
       <c r="R16">
-        <v>0.9999999927247911</v>
+        <v>0.9999645842232073</v>
       </c>
       <c r="S16">
-        <v>0.9999999136486414</v>
+        <v>0.9995899006778491</v>
       </c>
       <c r="T16">
-        <v>0.9999999927247911</v>
+        <v>0.9999645842232073</v>
       </c>
       <c r="U16">
-        <v>0.9999999803756644</v>
+        <v>0.9999049419718058</v>
       </c>
       <c r="V16">
-        <v>1.000000020411878</v>
+        <v>1.00009396674818</v>
       </c>
       <c r="W16">
-        <v>0.9999999828928118</v>
+        <v>0.9999159700881943</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000381009924</v>
+        <v>1.000696604971797</v>
       </c>
       <c r="D17">
-        <v>0.9999942839561042</v>
+        <v>0.9989550930312454</v>
       </c>
       <c r="E17">
-        <v>1.000001429719018</v>
+        <v>1.000261234069187</v>
       </c>
       <c r="F17">
-        <v>1.00000381009924</v>
+        <v>0.999791020742512</v>
       </c>
       <c r="G17">
-        <v>0.999998773499332</v>
+        <v>0.9989550930312454</v>
       </c>
       <c r="H17">
-        <v>1.00000212139633</v>
+        <v>0.9993205951010528</v>
       </c>
       <c r="I17">
-        <v>1.00000381009924</v>
+        <v>1.000261234069187</v>
       </c>
       <c r="J17">
-        <v>0.9999942839561042</v>
+        <v>1.000387857837038</v>
       </c>
       <c r="K17">
-        <v>0.9999988572728581</v>
+        <v>0.999775477022158</v>
       </c>
       <c r="L17">
-        <v>1.000001429719018</v>
+        <v>1.000696604971797</v>
       </c>
       <c r="M17">
-        <v>0.9999962857943048</v>
+        <v>1.000696604971797</v>
       </c>
       <c r="N17">
-        <v>1.00000381009924</v>
+        <v>1.000696604971797</v>
       </c>
       <c r="O17">
-        <v>1.000001429719018</v>
+        <v>1.000261234069187</v>
       </c>
       <c r="P17">
-        <v>0.9999978568375609</v>
+        <v>0.999608163550216</v>
       </c>
       <c r="Q17">
-        <v>1.000000101609175</v>
+        <v>1.000018355545672</v>
       </c>
       <c r="R17">
-        <v>0.9999998412581205</v>
+        <v>0.9999709773574098</v>
       </c>
       <c r="S17">
-        <v>0.9999981623914845</v>
+        <v>0.99966393470753</v>
       </c>
       <c r="T17">
-        <v>0.9999998412581205</v>
+        <v>0.9999709773574098</v>
       </c>
       <c r="U17">
-        <v>0.9999995743184233</v>
+        <v>0.9999221022735968</v>
       </c>
       <c r="V17">
-        <v>1.000000421474587</v>
+        <v>1.000077002813237</v>
       </c>
       <c r="W17">
-        <v>0.9999996239320255</v>
+        <v>0.999931139605522</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013413760466</v>
+        <v>1.000389925055629</v>
       </c>
       <c r="D18">
-        <v>0.9999798778628002</v>
+        <v>0.9994151112179247</v>
       </c>
       <c r="E18">
-        <v>1.000005031763651</v>
+        <v>1.000146224687269</v>
       </c>
       <c r="F18">
-        <v>1.000013413760466</v>
+        <v>0.9998830224442676</v>
       </c>
       <c r="G18">
-        <v>0.9999956787022453</v>
+        <v>0.9994151112179247</v>
       </c>
       <c r="H18">
-        <v>1.000007469262412</v>
+        <v>0.9996197045648239</v>
       </c>
       <c r="I18">
-        <v>1.000013413760466</v>
+        <v>1.000146224687269</v>
       </c>
       <c r="J18">
-        <v>0.9999798778628002</v>
+        <v>1.000217105847844</v>
       </c>
       <c r="K18">
-        <v>0.999995977708826</v>
+        <v>0.9998743249143235</v>
       </c>
       <c r="L18">
-        <v>1.000005031763651</v>
+        <v>1.000389925055629</v>
       </c>
       <c r="M18">
-        <v>0.9999869190500262</v>
+        <v>1.000389925055629</v>
       </c>
       <c r="N18">
-        <v>1.000013413760466</v>
+        <v>1.000389925055629</v>
       </c>
       <c r="O18">
-        <v>1.000005031763651</v>
+        <v>1.000146224687269</v>
       </c>
       <c r="P18">
-        <v>0.9999924548132254</v>
+        <v>0.9997806679525969</v>
       </c>
       <c r="Q18">
-        <v>1.000000355232948</v>
+        <v>1.000010274800796</v>
       </c>
       <c r="R18">
-        <v>0.9999994411289723</v>
+        <v>0.9999837536536077</v>
       </c>
       <c r="S18">
-        <v>0.9999935294428987</v>
+        <v>0.9998118869398391</v>
       </c>
       <c r="T18">
-        <v>0.9999994411289723</v>
+        <v>0.9999837536536077</v>
       </c>
       <c r="U18">
-        <v>0.9999985005222906</v>
+        <v>0.9999563964687866</v>
       </c>
       <c r="V18">
-        <v>1.000001483169926</v>
+        <v>1.000043102186155</v>
       </c>
       <c r="W18">
-        <v>0.9999986749842597</v>
+        <v>0.9999614554274189</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="D19">
+        <v>0.9993603933643568</v>
+      </c>
+      <c r="E19">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="F19">
+        <v>0.9998720803596823</v>
+      </c>
+      <c r="G19">
+        <v>0.9993603933643568</v>
+      </c>
+      <c r="H19">
+        <v>0.9995841265799252</v>
+      </c>
+      <c r="I19">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="J19">
+        <v>1.000237417881563</v>
+      </c>
+      <c r="K19">
+        <v>0.9998625643294712</v>
+      </c>
+      <c r="L19">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="M19">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="N19">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="O19">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="P19">
+        <v>0.9997601478892653</v>
+      </c>
+      <c r="Q19">
+        <v>1.000011233371823</v>
+      </c>
+      <c r="R19">
+        <v>0.9999822331117469</v>
+      </c>
+      <c r="S19">
+        <v>0.9997942867026671</v>
+      </c>
+      <c r="T19">
+        <v>0.9999822331117468</v>
+      </c>
+      <c r="U19">
+        <v>0.9999523159161778</v>
+      </c>
+      <c r="V19">
+        <v>1.000047133444284</v>
+      </c>
+      <c r="W19">
+        <v>0.999957848862507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="D20">
+        <v>0.999999728956425</v>
+      </c>
+      <c r="E20">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="F20">
+        <v>0.9999999463856302</v>
+      </c>
+      <c r="G20">
+        <v>0.999999728956425</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998262910793</v>
+      </c>
+      <c r="I20">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="J20">
+        <v>1.000000100301913</v>
+      </c>
+      <c r="K20">
+        <v>0.9999999433282843</v>
+      </c>
+      <c r="L20">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="M20">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="N20">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="O20">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998988088199</v>
+      </c>
+      <c r="Q20">
+        <v>1.00000000599475</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999927247911</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999136486414</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999927247911</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999803756644</v>
+      </c>
+      <c r="V20">
+        <v>1.000000020411878</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999828928118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="D21">
+        <v>0.9999942839561042</v>
+      </c>
+      <c r="E21">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="F21">
+        <v>0.9999988572728581</v>
+      </c>
+      <c r="G21">
+        <v>0.9999942839561042</v>
+      </c>
+      <c r="H21">
+        <v>0.9999962857943048</v>
+      </c>
+      <c r="I21">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="J21">
+        <v>1.00000212139633</v>
+      </c>
+      <c r="K21">
+        <v>0.9999987734993321</v>
+      </c>
+      <c r="L21">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="M21">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="N21">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="O21">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="P21">
+        <v>0.9999978568375609</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000101609175</v>
+      </c>
+      <c r="R21">
+        <v>0.9999998412581205</v>
+      </c>
+      <c r="S21">
+        <v>0.9999981623914845</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998412581205</v>
+      </c>
+      <c r="U21">
+        <v>0.9999995743184233</v>
+      </c>
+      <c r="V21">
+        <v>1.000000421474587</v>
+      </c>
+      <c r="W21">
+        <v>0.9999996239320255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="D22">
+        <v>0.9999798778628002</v>
+      </c>
+      <c r="E22">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="F22">
+        <v>0.999995977708826</v>
+      </c>
+      <c r="G22">
+        <v>0.9999798778628002</v>
+      </c>
+      <c r="H22">
+        <v>0.9999869190500259</v>
+      </c>
+      <c r="I22">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="J22">
+        <v>1.000007469262412</v>
+      </c>
+      <c r="K22">
+        <v>0.9999956787022453</v>
+      </c>
+      <c r="L22">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="M22">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="N22">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="O22">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="P22">
+        <v>0.9999924548132254</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000355232948</v>
+      </c>
+      <c r="R22">
+        <v>0.9999994411289723</v>
+      </c>
+      <c r="S22">
+        <v>0.9999935294428987</v>
+      </c>
+      <c r="T22">
+        <v>0.9999994411289723</v>
+      </c>
+      <c r="U22">
+        <v>0.9999985005222906</v>
+      </c>
+      <c r="V22">
+        <v>1.000001483169926</v>
+      </c>
+      <c r="W22">
+        <v>0.9999986749842595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000031425760861</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9999528595899232</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.000011785579053</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9999905721344716</v>
+      </c>
+      <c r="G23">
+        <v>0.9999528595899232</v>
+      </c>
+      <c r="H23">
+        <v>0.9999693515493419</v>
+      </c>
+      <c r="I23">
+        <v>1.000011785579053</v>
+      </c>
+      <c r="J23">
+        <v>1.000017499928081</v>
+      </c>
+      <c r="K23">
+        <v>0.9999898747815763</v>
+      </c>
+      <c r="L23">
         <v>1.000031425760861</v>
       </c>
-      <c r="G19">
-        <v>0.9999898747815763</v>
-      </c>
-      <c r="H19">
-        <v>1.000017499928081</v>
-      </c>
-      <c r="I19">
+      <c r="M23">
         <v>1.000031425760861</v>
       </c>
-      <c r="J19">
-        <v>0.9999528595899232</v>
-      </c>
-      <c r="K19">
-        <v>0.9999905721344716</v>
-      </c>
-      <c r="L19">
+      <c r="N23">
+        <v>1.000031425760861</v>
+      </c>
+      <c r="O23">
         <v>1.000011785579053</v>
       </c>
-      <c r="M19">
-        <v>0.9999693515493419</v>
-      </c>
-      <c r="N19">
-        <v>1.000031425760861</v>
-      </c>
-      <c r="O19">
-        <v>1.000011785579053</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999982322584488</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000000830180315</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999986903099455</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999848399835175</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999986903099455</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999964864278532</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000003474294455</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.999996894362795</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043566890628</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="D3">
-        <v>0.999934649597134</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="E3">
-        <v>1.000016339198274</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="F3">
-        <v>0.9999869307455171</v>
+        <v>0.9998582821829984</v>
       </c>
       <c r="G3">
-        <v>0.999934649597134</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="H3">
-        <v>0.9999575110231653</v>
+        <v>0.9995392715561964</v>
       </c>
       <c r="I3">
-        <v>1.000016339198274</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="J3">
-        <v>1.000024257019314</v>
+        <v>1.000263021188762</v>
       </c>
       <c r="K3">
-        <v>0.9999859595111675</v>
+        <v>0.9998477415994205</v>
       </c>
       <c r="L3">
-        <v>1.000043566890628</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="M3">
-        <v>1.000043566890628</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="N3">
-        <v>1.000043566890628</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="O3">
-        <v>1.000016339198274</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="P3">
-        <v>0.9999754943977042</v>
+        <v>0.9997342791318469</v>
       </c>
       <c r="Q3">
-        <v>1.000001149354721</v>
+        <v>1.00001244564121</v>
       </c>
       <c r="R3">
-        <v>0.9999981852286789</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="S3">
-        <v>0.9999789827688587</v>
+        <v>0.9997720999543714</v>
       </c>
       <c r="T3">
-        <v>0.9999981852286789</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="U3">
-        <v>0.9999951287993011</v>
+        <v>0.9999471734510085</v>
       </c>
       <c r="V3">
-        <v>1.000004816417567</v>
+        <v>1.000052217548991</v>
       </c>
       <c r="W3">
-        <v>0.9999956941479344</v>
+        <v>0.9999533023018736</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084104699112</v>
+        <v>1.000425367840105</v>
       </c>
       <c r="D4">
-        <v>0.9998738430402672</v>
+        <v>0.9993619479472551</v>
       </c>
       <c r="E4">
-        <v>1.00003154180094</v>
+        <v>1.000159514603063</v>
       </c>
       <c r="F4">
-        <v>0.999974770014075</v>
+        <v>0.9998723899487503</v>
       </c>
       <c r="G4">
-        <v>0.9998738430402672</v>
+        <v>0.9993619479472551</v>
       </c>
       <c r="H4">
-        <v>0.9999179742579268</v>
+        <v>0.99958513676668</v>
       </c>
       <c r="I4">
-        <v>1.00003154180094</v>
+        <v>1.000159514603063</v>
       </c>
       <c r="J4">
-        <v>1.000046828368588</v>
+        <v>1.00023683781774</v>
       </c>
       <c r="K4">
-        <v>0.9999728937080901</v>
+        <v>0.9998628988846472</v>
       </c>
       <c r="L4">
-        <v>1.000084104699112</v>
+        <v>1.000425367840105</v>
       </c>
       <c r="M4">
-        <v>1.000084104699112</v>
+        <v>1.000425367840105</v>
       </c>
       <c r="N4">
-        <v>1.000084104699112</v>
+        <v>1.000425367840105</v>
       </c>
       <c r="O4">
-        <v>1.00003154180094</v>
+        <v>1.000159514603063</v>
       </c>
       <c r="P4">
-        <v>0.9999526924206038</v>
+        <v>0.9997607312751592</v>
       </c>
       <c r="Q4">
-        <v>1.000002217754515</v>
+        <v>1.000011206743855</v>
       </c>
       <c r="R4">
-        <v>0.9999964965134397</v>
+        <v>0.9999822767968078</v>
       </c>
       <c r="S4">
-        <v>0.9999594261830992</v>
+        <v>0.9997947871449885</v>
       </c>
       <c r="T4">
-        <v>0.9999964965134397</v>
+        <v>0.9999822767968078</v>
       </c>
       <c r="U4">
-        <v>0.9999905958121023</v>
+        <v>0.9999524323187676</v>
       </c>
       <c r="V4">
-        <v>1.000009297589504</v>
+        <v>1.000047019423035</v>
       </c>
       <c r="W4">
-        <v>0.9999916872112424</v>
+        <v>0.9999579510514129</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161173201407</v>
+        <v>1.000562708706198</v>
       </c>
       <c r="D5">
-        <v>0.9997582390027382</v>
+        <v>0.9991559347169813</v>
       </c>
       <c r="E5">
-        <v>1.00006044325276</v>
+        <v>1.000211019353099</v>
       </c>
       <c r="F5">
-        <v>0.9999516501987257</v>
+        <v>0.9998311874663078</v>
       </c>
       <c r="G5">
-        <v>0.9997582390027382</v>
+        <v>0.9991559347169813</v>
       </c>
       <c r="H5">
-        <v>0.9998428000859754</v>
+        <v>0.9994511852021571</v>
       </c>
       <c r="I5">
-        <v>1.00006044325276</v>
+        <v>1.000211019353099</v>
       </c>
       <c r="J5">
-        <v>1.00008974248917</v>
+        <v>1.000313307951482</v>
       </c>
       <c r="K5">
-        <v>0.9999480554662852</v>
+        <v>0.999818633369273</v>
       </c>
       <c r="L5">
-        <v>1.000161173201407</v>
+        <v>1.000562708706198</v>
       </c>
       <c r="M5">
-        <v>1.000161173201407</v>
+        <v>1.000562708706198</v>
       </c>
       <c r="N5">
-        <v>1.000161173201407</v>
+        <v>1.000562708706198</v>
       </c>
       <c r="O5">
-        <v>1.00006044325276</v>
+        <v>1.000211019353099</v>
       </c>
       <c r="P5">
-        <v>0.999909341127749</v>
+        <v>0.9996834770350402</v>
       </c>
       <c r="Q5">
-        <v>1.000004249359522</v>
+        <v>1.000014826361186</v>
       </c>
       <c r="R5">
-        <v>0.9999932851523017</v>
+        <v>0.9999765542587595</v>
       </c>
       <c r="S5">
-        <v>0.9999222459072611</v>
+        <v>0.9997285291464512</v>
       </c>
       <c r="T5">
-        <v>0.9999932851523017</v>
+        <v>0.9999765542587594</v>
       </c>
       <c r="U5">
-        <v>0.9999819777307976</v>
+        <v>0.9999370740363878</v>
       </c>
       <c r="V5">
-        <v>1.00001781682492</v>
+        <v>1.00006220097035</v>
       </c>
       <c r="W5">
-        <v>0.9999840683687277</v>
+        <v>0.9999443745148247</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236392227664</v>
+        <v>1.000648230965909</v>
       </c>
       <c r="D6">
-        <v>0.9996454187910688</v>
+        <v>0.9990276511363638</v>
       </c>
       <c r="E6">
-        <v>1.000088653723104</v>
+        <v>1.000243092159092</v>
       </c>
       <c r="F6">
-        <v>0.9999290867128668</v>
+        <v>0.9998055282954555</v>
       </c>
       <c r="G6">
-        <v>0.9996454187910688</v>
+        <v>0.9990276511363638</v>
       </c>
       <c r="H6">
-        <v>0.9997694492837572</v>
+        <v>0.999367770170455</v>
       </c>
       <c r="I6">
-        <v>1.000088653723104</v>
+        <v>1.000243092159092</v>
       </c>
       <c r="J6">
-        <v>1.000131618391177</v>
+        <v>1.000360926420455</v>
       </c>
       <c r="K6">
-        <v>0.9999238107271923</v>
+        <v>0.9997910659659097</v>
       </c>
       <c r="L6">
-        <v>1.000236392227664</v>
+        <v>1.000648230965909</v>
       </c>
       <c r="M6">
-        <v>1.000236392227664</v>
+        <v>1.000648230965909</v>
       </c>
       <c r="N6">
-        <v>1.000236392227664</v>
+        <v>1.000648230965909</v>
       </c>
       <c r="O6">
-        <v>1.000088653723104</v>
+        <v>1.000243092159092</v>
       </c>
       <c r="P6">
-        <v>0.9998670362570865</v>
+        <v>0.999635371647728</v>
       </c>
       <c r="Q6">
-        <v>1.000006232225148</v>
+        <v>1.000017079062501</v>
       </c>
       <c r="R6">
-        <v>0.9999901549139457</v>
+        <v>0.999972991420455</v>
       </c>
       <c r="S6">
-        <v>0.9998859610804551</v>
+        <v>0.9996872697537885</v>
       </c>
       <c r="T6">
-        <v>0.9999901549139457</v>
+        <v>0.999972991420455</v>
       </c>
       <c r="U6">
-        <v>0.9999735688672574</v>
+        <v>0.9999275100568187</v>
       </c>
       <c r="V6">
-        <v>1.000026133539339</v>
+        <v>1.000071654238637</v>
       </c>
       <c r="W6">
-        <v>0.9999766354474919</v>
+        <v>0.9999359196590916</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003603366522</v>
+        <v>1.001509777415397</v>
       </c>
       <c r="D7">
-        <v>0.9999945947597488</v>
+        <v>0.9977353408052335</v>
       </c>
       <c r="E7">
-        <v>1.000001352110798</v>
+        <v>1.000566167345688</v>
       </c>
       <c r="F7">
-        <v>0.999998919519446</v>
+        <v>0.9995470699893639</v>
       </c>
       <c r="G7">
-        <v>0.9999945947597488</v>
+        <v>0.9977353408052335</v>
       </c>
       <c r="H7">
-        <v>0.9999964879052931</v>
+        <v>0.9985275085353074</v>
       </c>
       <c r="I7">
-        <v>1.000001352110798</v>
+        <v>1.000566167345688</v>
       </c>
       <c r="J7">
-        <v>1.000002005778389</v>
+        <v>1.000840629598798</v>
       </c>
       <c r="K7">
-        <v>0.999998840173527</v>
+        <v>0.9995133769078652</v>
       </c>
       <c r="L7">
-        <v>1.000003603366522</v>
+        <v>1.001509777415397</v>
       </c>
       <c r="M7">
-        <v>1.000003603366522</v>
+        <v>1.001509777415397</v>
       </c>
       <c r="N7">
-        <v>1.000003603366522</v>
+        <v>1.001509777415397</v>
       </c>
       <c r="O7">
-        <v>1.000001352110798</v>
+        <v>1.000566167345688</v>
       </c>
       <c r="P7">
-        <v>0.9999979734352735</v>
+        <v>0.9991507540754609</v>
       </c>
       <c r="Q7">
-        <v>1.000000096142163</v>
+        <v>1.000039772126777</v>
       </c>
       <c r="R7">
-        <v>0.999999850079023</v>
+        <v>0.9999370951887728</v>
       </c>
       <c r="S7">
-        <v>0.9999982623480247</v>
+        <v>0.999271628352929</v>
       </c>
       <c r="T7">
-        <v>0.999999850079023</v>
+        <v>0.9999370951887729</v>
       </c>
       <c r="U7">
-        <v>0.999999597602649</v>
+        <v>0.999831165618546</v>
       </c>
       <c r="V7">
-        <v>1.000000398755424</v>
+        <v>1.000166887977916</v>
       </c>
       <c r="W7">
-        <v>0.9999996444655653</v>
+        <v>0.9998507547429176</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000010411964829</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="D8">
-        <v>0.9999843820137128</v>
+        <v>0.9977202967721921</v>
       </c>
       <c r="E8">
-        <v>1.000003905342551</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="F8">
-        <v>0.9999968769057203</v>
+        <v>0.999544061183528</v>
       </c>
       <c r="G8">
-        <v>0.9999843820137128</v>
+        <v>0.9977202967721921</v>
       </c>
       <c r="H8">
-        <v>0.9999898475505646</v>
+        <v>0.9985177267898827</v>
       </c>
       <c r="I8">
-        <v>1.000003905342551</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="J8">
-        <v>1.000005796625829</v>
+        <v>1.000846213706286</v>
       </c>
       <c r="K8">
-        <v>0.9999966456822384</v>
+        <v>0.9995101443012864</v>
       </c>
       <c r="L8">
-        <v>1.000010411964829</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="M8">
-        <v>1.000010411964829</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="N8">
-        <v>1.000010411964829</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="O8">
-        <v>1.000003905342551</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="P8">
-        <v>0.9999941436781317</v>
+        <v>0.9991451125518543</v>
       </c>
       <c r="Q8">
-        <v>1.000000275512395</v>
+        <v>1.000040036316401</v>
       </c>
       <c r="R8">
-        <v>0.9999995664403641</v>
+        <v>0.9999366772670216</v>
       </c>
       <c r="S8">
-        <v>0.9999949776795006</v>
+        <v>0.9992667898016651</v>
       </c>
       <c r="T8">
-        <v>0.9999995664403641</v>
+        <v>0.9999366772670216</v>
       </c>
       <c r="U8">
-        <v>0.9999988362508327</v>
+        <v>0.9998300440255878</v>
       </c>
       <c r="V8">
-        <v>1.000001151393632</v>
+        <v>1.000167996559941</v>
       </c>
       <c r="W8">
-        <v>0.9999989714284995</v>
+        <v>0.9998497632641956</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000015496252225</v>
+        <v>1.001526196900022</v>
       </c>
       <c r="D9">
-        <v>0.9999767547500679</v>
+        <v>0.9977107113366147</v>
       </c>
       <c r="E9">
-        <v>1.0000058116581</v>
+        <v>1.000572324677702</v>
       </c>
       <c r="F9">
-        <v>0.9999953518724848</v>
+        <v>0.9995421441048724</v>
       </c>
       <c r="G9">
-        <v>0.9999767547500679</v>
+        <v>0.9977107113366147</v>
       </c>
       <c r="H9">
-        <v>0.9999848880267788</v>
+        <v>0.9985114942659977</v>
       </c>
       <c r="I9">
-        <v>1.0000058116581</v>
+        <v>1.000572324677702</v>
       </c>
       <c r="J9">
-        <v>1.000008627884456</v>
+        <v>1.000849771584252</v>
       </c>
       <c r="K9">
-        <v>0.9999950068047972</v>
+        <v>0.9995080846133682</v>
       </c>
       <c r="L9">
-        <v>1.000015496252225</v>
+        <v>1.001526196900022</v>
       </c>
       <c r="M9">
-        <v>1.000015496252225</v>
+        <v>1.001526196900022</v>
       </c>
       <c r="N9">
-        <v>1.000015496252225</v>
+        <v>1.001526196900022</v>
       </c>
       <c r="O9">
-        <v>1.0000058116581</v>
+        <v>1.000572324677702</v>
       </c>
       <c r="P9">
-        <v>0.999991283204084</v>
+        <v>0.9991415180071586</v>
       </c>
       <c r="Q9">
-        <v>1.000000409231449</v>
+        <v>1.000040204645535</v>
       </c>
       <c r="R9">
-        <v>0.9999993542201312</v>
+        <v>0.9999364109714465</v>
       </c>
       <c r="S9">
-        <v>0.9999925244043218</v>
+        <v>0.9992637068758951</v>
       </c>
       <c r="T9">
-        <v>0.9999993542201312</v>
+        <v>0.9999364109714465</v>
       </c>
       <c r="U9">
-        <v>0.9999982673662977</v>
+        <v>0.9998293293819269</v>
       </c>
       <c r="V9">
-        <v>1.000001713143483</v>
+        <v>1.000168702885546</v>
       </c>
       <c r="W9">
-        <v>0.9999984686133763</v>
+        <v>0.9998491315200665</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00003251845385</v>
+        <v>1.001561154988848</v>
       </c>
       <c r="D10">
-        <v>0.9999512206181743</v>
+        <v>0.9976582736643501</v>
       </c>
       <c r="E10">
-        <v>1.000012196150037</v>
+        <v>1.000585433974788</v>
       </c>
       <c r="F10">
-        <v>0.9999902448243931</v>
+        <v>0.9995316566102302</v>
       </c>
       <c r="G10">
-        <v>0.9999512206181743</v>
+        <v>0.9976582736643501</v>
       </c>
       <c r="H10">
-        <v>0.9999682854163462</v>
+        <v>0.9984773989009417</v>
       </c>
       <c r="I10">
-        <v>1.000012196150037</v>
+        <v>1.000585433974788</v>
       </c>
       <c r="J10">
-        <v>1.000018106419505</v>
+        <v>1.000869235865892</v>
       </c>
       <c r="K10">
-        <v>0.999989521091859</v>
+        <v>0.9994968170118679</v>
       </c>
       <c r="L10">
-        <v>1.00003251845385</v>
+        <v>1.001561154988848</v>
       </c>
       <c r="M10">
-        <v>1.00003251845385</v>
+        <v>1.001561154988848</v>
       </c>
       <c r="N10">
-        <v>1.00003251845385</v>
+        <v>1.001561154988848</v>
       </c>
       <c r="O10">
-        <v>1.000012196150037</v>
+        <v>1.000585433974788</v>
       </c>
       <c r="P10">
-        <v>0.9999817083841056</v>
+        <v>0.9991218538195692</v>
       </c>
       <c r="Q10">
-        <v>1.000000858620948</v>
+        <v>1.000041125493328</v>
       </c>
       <c r="R10">
-        <v>0.9999986450740205</v>
+        <v>0.9999349542093289</v>
       </c>
       <c r="S10">
-        <v>0.9999843126200233</v>
+        <v>0.9992468415503355</v>
       </c>
       <c r="T10">
-        <v>0.9999986450740203</v>
+        <v>0.9999349542093289</v>
       </c>
       <c r="U10">
-        <v>0.9999963640784799</v>
+        <v>0.9998254199099637</v>
       </c>
       <c r="V10">
-        <v>1.000003594953554</v>
+        <v>1.000172566925741</v>
       </c>
       <c r="W10">
-        <v>0.9999967861405251</v>
+        <v>0.9998456756239633</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000056549525137</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="D11">
-        <v>0.9999151747659947</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="E11">
-        <v>1.000021206794479</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="F11">
-        <v>0.9999830362727102</v>
+        <v>0.9999842831611406</v>
       </c>
       <c r="G11">
-        <v>0.9999151747659947</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="H11">
-        <v>0.9999448485343139</v>
+        <v>0.9999489050529794</v>
       </c>
       <c r="I11">
-        <v>1.000021206794479</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="J11">
-        <v>1.000031486194269</v>
+        <v>1.00002916962818</v>
       </c>
       <c r="K11">
-        <v>0.9999817740268444</v>
+        <v>0.9999831154099968</v>
       </c>
       <c r="L11">
-        <v>1.000056549525137</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="M11">
-        <v>1.000056549525137</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="N11">
-        <v>1.000056549525137</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="O11">
-        <v>1.000021206794479</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="P11">
-        <v>0.9999681907802367</v>
+        <v>0.9999705309189701</v>
       </c>
       <c r="Q11">
-        <v>1.000001490410662</v>
+        <v>1.000001381665795</v>
       </c>
       <c r="R11">
-        <v>0.9999976436952034</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="S11">
-        <v>0.999972718529106</v>
+        <v>0.9999747257493125</v>
       </c>
       <c r="T11">
-        <v>0.9999976436952034</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="U11">
-        <v>0.9999936762781136</v>
+        <v>0.999994142091137</v>
       </c>
       <c r="V11">
-        <v>1.000006250927518</v>
+        <v>1.000005791896232</v>
       </c>
       <c r="W11">
-        <v>0.9999944103635283</v>
+        <v>0.9999948217660553</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993741563426508</v>
+        <v>1.000029935099126</v>
       </c>
       <c r="D12">
-        <v>1.000938762023138</v>
+        <v>0.9999550971851091</v>
       </c>
       <c r="E12">
-        <v>0.9997653092945696</v>
+        <v>1.000011226898615</v>
       </c>
       <c r="F12">
-        <v>1.000187750242171</v>
+        <v>0.9999910200828421</v>
       </c>
       <c r="G12">
-        <v>1.000938762023138</v>
+        <v>0.9999550971851091</v>
       </c>
       <c r="H12">
-        <v>1.000610391009779</v>
+        <v>0.9999708063871422</v>
       </c>
       <c r="I12">
-        <v>0.9997653092945696</v>
+        <v>1.000011226898615</v>
       </c>
       <c r="J12">
-        <v>0.9996515416410945</v>
+        <v>1.000016666998486</v>
       </c>
       <c r="K12">
-        <v>1.000201720479163</v>
+        <v>0.9999903530873018</v>
       </c>
       <c r="L12">
-        <v>0.9993741563426508</v>
+        <v>1.000029935099126</v>
       </c>
       <c r="M12">
-        <v>0.9993741563426508</v>
+        <v>1.000029935099126</v>
       </c>
       <c r="N12">
-        <v>0.9993741563426508</v>
+        <v>1.000029935099126</v>
       </c>
       <c r="O12">
-        <v>0.9997653092945696</v>
+        <v>1.000011226898615</v>
       </c>
       <c r="P12">
-        <v>1.000352035658854</v>
+        <v>0.9999831620418622</v>
       </c>
       <c r="Q12">
-        <v>0.9999835148868663</v>
+        <v>1.000000789992959</v>
       </c>
       <c r="R12">
-        <v>1.000026075886786</v>
+        <v>0.9999987530609502</v>
       </c>
       <c r="S12">
-        <v>1.000301930598957</v>
+        <v>0.9999855590570087</v>
       </c>
       <c r="T12">
-        <v>1.000026075886786</v>
+        <v>0.9999987530609501</v>
       </c>
       <c r="U12">
-        <v>1.00006998703488</v>
+        <v>0.9999966530675379</v>
       </c>
       <c r="V12">
-        <v>0.9999308208964344</v>
+        <v>1.000003309473855</v>
       </c>
       <c r="W12">
-        <v>1.000061867540892</v>
+        <v>0.9999970415796547</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998377853168013</v>
+        <v>1.00010781724936</v>
       </c>
       <c r="D13">
-        <v>1.000243323193166</v>
+        <v>0.9998382735652803</v>
       </c>
       <c r="E13">
-        <v>0.9999391702538896</v>
+        <v>1.000040432606301</v>
       </c>
       <c r="F13">
-        <v>1.000048665987001</v>
+        <v>0.9999676566596223</v>
       </c>
       <c r="G13">
-        <v>1.000243323193166</v>
+        <v>0.9998382735652803</v>
       </c>
       <c r="H13">
-        <v>1.000158218555874</v>
+        <v>0.9998948452832147</v>
       </c>
       <c r="I13">
-        <v>0.9999391702538896</v>
+        <v>1.000040432606301</v>
       </c>
       <c r="J13">
-        <v>0.9999096834577995</v>
+        <v>1.000060032360435</v>
       </c>
       <c r="K13">
-        <v>1.000052289871308</v>
+        <v>0.9999652498472877</v>
       </c>
       <c r="L13">
-        <v>0.9998377853168013</v>
+        <v>1.00010781724936</v>
       </c>
       <c r="M13">
-        <v>0.9998377853168013</v>
+        <v>1.00010781724936</v>
       </c>
       <c r="N13">
-        <v>0.9998377853168013</v>
+        <v>1.00010781724936</v>
       </c>
       <c r="O13">
-        <v>0.9999391702538896</v>
+        <v>1.000040432606301</v>
       </c>
       <c r="P13">
-        <v>1.000091246723528</v>
+        <v>0.9999393530857907</v>
       </c>
       <c r="Q13">
-        <v>0.9999957300625986</v>
+        <v>1.000002841226794</v>
       </c>
       <c r="R13">
-        <v>1.000006759587952</v>
+        <v>0.9999955078069807</v>
       </c>
       <c r="S13">
-        <v>1.000078261106121</v>
+        <v>0.999947985339623</v>
       </c>
       <c r="T13">
-        <v>1.000006759587952</v>
+        <v>0.9999955078069807</v>
       </c>
       <c r="U13">
-        <v>1.000018142158791</v>
+        <v>0.9999879433170574</v>
       </c>
       <c r="V13">
-        <v>0.999982070790393</v>
+        <v>1.000011918103518</v>
       </c>
       <c r="W13">
-        <v>1.000016038361216</v>
+        <v>0.9999893425222253</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999974633047395</v>
+        <v>1.00012197598722</v>
       </c>
       <c r="D14">
-        <v>1.000003795180401</v>
+        <v>0.9998170386475225</v>
       </c>
       <c r="E14">
-        <v>0.9999990494506927</v>
+        <v>1.000045744361387</v>
       </c>
       <c r="F14">
-        <v>1.000000760577882</v>
+        <v>0.9999634104258601</v>
       </c>
       <c r="G14">
-        <v>1.000003795180401</v>
+        <v>0.9998170386475225</v>
       </c>
       <c r="H14">
-        <v>1.000002475634174</v>
+        <v>0.9998810390588023</v>
       </c>
       <c r="I14">
-        <v>0.9999990494506927</v>
+        <v>1.000045744361387</v>
       </c>
       <c r="J14">
-        <v>0.9999985817290312</v>
+        <v>1.000067916645576</v>
       </c>
       <c r="K14">
-        <v>1.000000829405617</v>
+        <v>0.9999606869994874</v>
       </c>
       <c r="L14">
-        <v>0.9999974633047395</v>
+        <v>1.00012197598722</v>
       </c>
       <c r="M14">
-        <v>0.9999974633047395</v>
+        <v>1.00012197598722</v>
       </c>
       <c r="N14">
-        <v>0.9999974633047395</v>
+        <v>1.00012197598722</v>
       </c>
       <c r="O14">
-        <v>0.9999990494506927</v>
+        <v>1.000045744361387</v>
       </c>
       <c r="P14">
-        <v>1.000001422315547</v>
+        <v>0.9999313915044548</v>
       </c>
       <c r="Q14">
-        <v>0.9999999394281548</v>
+        <v>1.000003215680437</v>
       </c>
       <c r="R14">
-        <v>1.000000102645278</v>
+        <v>0.9999949196653765</v>
       </c>
       <c r="S14">
-        <v>1.000001224678903</v>
+        <v>0.9999411566694656</v>
       </c>
       <c r="T14">
-        <v>1.000000102645278</v>
+        <v>0.9999949196653765</v>
       </c>
       <c r="U14">
-        <v>1.000000284335362</v>
+        <v>0.9999863614989042</v>
       </c>
       <c r="V14">
-        <v>0.9999997201292377</v>
+        <v>1.000013484396567</v>
       </c>
       <c r="W14">
-        <v>1.000000250591654</v>
+        <v>0.9999879445609052</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000000664119448</v>
+        <v>1.000043566890628</v>
       </c>
       <c r="D15">
-        <v>0.9999990055467399</v>
+        <v>0.999934649597134</v>
       </c>
       <c r="E15">
-        <v>1.000000246945577</v>
+        <v>1.000016339198274</v>
       </c>
       <c r="F15">
-        <v>0.9999997961638373</v>
+        <v>0.9999869307455171</v>
       </c>
       <c r="G15">
-        <v>0.9999990055467399</v>
+        <v>0.999934649597134</v>
       </c>
       <c r="H15">
-        <v>0.999999352278692</v>
+        <v>0.9999575110231653</v>
       </c>
       <c r="I15">
-        <v>1.000000246945577</v>
+        <v>1.000016339198274</v>
       </c>
       <c r="J15">
-        <v>1.00000036595987</v>
+        <v>1.000024257019314</v>
       </c>
       <c r="K15">
-        <v>0.9999997910152201</v>
+        <v>0.9999859595111675</v>
       </c>
       <c r="L15">
-        <v>1.000000664119448</v>
+        <v>1.000043566890628</v>
       </c>
       <c r="M15">
-        <v>1.000000664119448</v>
+        <v>1.000043566890628</v>
       </c>
       <c r="N15">
-        <v>1.000000664119448</v>
+        <v>1.000043566890628</v>
       </c>
       <c r="O15">
-        <v>1.000000246945577</v>
+        <v>1.000016339198274</v>
       </c>
       <c r="P15">
-        <v>0.9999996262461586</v>
+        <v>0.9999754943977042</v>
       </c>
       <c r="Q15">
-        <v>1.000000018980399</v>
+        <v>1.000001149354721</v>
       </c>
       <c r="R15">
-        <v>0.9999999722039217</v>
+        <v>0.9999981852286789</v>
       </c>
       <c r="S15">
-        <v>0.999999681169179</v>
+        <v>0.9999789827688587</v>
       </c>
       <c r="T15">
-        <v>0.9999999722039217</v>
+        <v>0.9999981852286789</v>
       </c>
       <c r="U15">
-        <v>0.9999999269067463</v>
+        <v>0.9999951287993011</v>
       </c>
       <c r="V15">
-        <v>1.000000074349287</v>
+        <v>1.000004816417567</v>
       </c>
       <c r="W15">
-        <v>0.9999999336218701</v>
+        <v>0.9999956941479344</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000850065853676</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="D16">
-        <v>0.9987249020272994</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="E16">
-        <v>1.000318784788647</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="F16">
-        <v>0.9997449834724919</v>
+        <v>0.999974770014075</v>
       </c>
       <c r="G16">
-        <v>0.9987249020272994</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="H16">
-        <v>0.9991709224168451</v>
+        <v>0.9999179742579268</v>
       </c>
       <c r="I16">
-        <v>1.000318784788647</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="J16">
-        <v>1.000473302140348</v>
+        <v>1.000046828368588</v>
       </c>
       <c r="K16">
-        <v>0.9997260152176012</v>
+        <v>0.9999728937080901</v>
       </c>
       <c r="L16">
-        <v>1.000850065853676</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="M16">
-        <v>1.000850065853676</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="N16">
-        <v>1.000850065853676</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="O16">
-        <v>1.000318784788647</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="P16">
-        <v>0.9995218434079731</v>
+        <v>0.9999526924206038</v>
       </c>
       <c r="Q16">
-        <v>1.000022400003124</v>
+        <v>1.000002217754515</v>
       </c>
       <c r="R16">
-        <v>0.9999645842232073</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="S16">
-        <v>0.9995899006778491</v>
+        <v>0.9999594261830992</v>
       </c>
       <c r="T16">
-        <v>0.9999645842232073</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="U16">
-        <v>0.9999049419718058</v>
+        <v>0.9999905958121023</v>
       </c>
       <c r="V16">
-        <v>1.00009396674818</v>
+        <v>1.000009297589504</v>
       </c>
       <c r="W16">
-        <v>0.9999159700881943</v>
+        <v>0.9999916872112424</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000696604971797</v>
+        <v>1.000161173201407</v>
       </c>
       <c r="D17">
-        <v>0.9989550930312454</v>
+        <v>0.9997582390027382</v>
       </c>
       <c r="E17">
-        <v>1.000261234069187</v>
+        <v>1.00006044325276</v>
       </c>
       <c r="F17">
-        <v>0.999791020742512</v>
+        <v>0.9999516501987257</v>
       </c>
       <c r="G17">
-        <v>0.9989550930312454</v>
+        <v>0.9997582390027382</v>
       </c>
       <c r="H17">
-        <v>0.9993205951010528</v>
+        <v>0.9998428000859754</v>
       </c>
       <c r="I17">
-        <v>1.000261234069187</v>
+        <v>1.00006044325276</v>
       </c>
       <c r="J17">
-        <v>1.000387857837038</v>
+        <v>1.00008974248917</v>
       </c>
       <c r="K17">
-        <v>0.999775477022158</v>
+        <v>0.9999480554662852</v>
       </c>
       <c r="L17">
-        <v>1.000696604971797</v>
+        <v>1.000161173201407</v>
       </c>
       <c r="M17">
-        <v>1.000696604971797</v>
+        <v>1.000161173201407</v>
       </c>
       <c r="N17">
-        <v>1.000696604971797</v>
+        <v>1.000161173201407</v>
       </c>
       <c r="O17">
-        <v>1.000261234069187</v>
+        <v>1.00006044325276</v>
       </c>
       <c r="P17">
-        <v>0.999608163550216</v>
+        <v>0.999909341127749</v>
       </c>
       <c r="Q17">
-        <v>1.000018355545672</v>
+        <v>1.000004249359522</v>
       </c>
       <c r="R17">
-        <v>0.9999709773574098</v>
+        <v>0.9999932851523017</v>
       </c>
       <c r="S17">
-        <v>0.99966393470753</v>
+        <v>0.9999222459072611</v>
       </c>
       <c r="T17">
-        <v>0.9999709773574098</v>
+        <v>0.9999932851523017</v>
       </c>
       <c r="U17">
-        <v>0.9999221022735968</v>
+        <v>0.9999819777307976</v>
       </c>
       <c r="V17">
-        <v>1.000077002813237</v>
+        <v>1.00001781682492</v>
       </c>
       <c r="W17">
-        <v>0.999931139605522</v>
+        <v>0.9999840683687277</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000389925055629</v>
+        <v>1.000236392227664</v>
       </c>
       <c r="D18">
-        <v>0.9994151112179247</v>
+        <v>0.9996454187910688</v>
       </c>
       <c r="E18">
-        <v>1.000146224687269</v>
+        <v>1.000088653723104</v>
       </c>
       <c r="F18">
-        <v>0.9998830224442676</v>
+        <v>0.9999290867128668</v>
       </c>
       <c r="G18">
-        <v>0.9994151112179247</v>
+        <v>0.9996454187910688</v>
       </c>
       <c r="H18">
-        <v>0.9996197045648239</v>
+        <v>0.9997694492837572</v>
       </c>
       <c r="I18">
-        <v>1.000146224687269</v>
+        <v>1.000088653723104</v>
       </c>
       <c r="J18">
-        <v>1.000217105847844</v>
+        <v>1.000131618391177</v>
       </c>
       <c r="K18">
-        <v>0.9998743249143235</v>
+        <v>0.9999238107271923</v>
       </c>
       <c r="L18">
-        <v>1.000389925055629</v>
+        <v>1.000236392227664</v>
       </c>
       <c r="M18">
-        <v>1.000389925055629</v>
+        <v>1.000236392227664</v>
       </c>
       <c r="N18">
-        <v>1.000389925055629</v>
+        <v>1.000236392227664</v>
       </c>
       <c r="O18">
-        <v>1.000146224687269</v>
+        <v>1.000088653723104</v>
       </c>
       <c r="P18">
-        <v>0.9997806679525969</v>
+        <v>0.9998670362570865</v>
       </c>
       <c r="Q18">
-        <v>1.000010274800796</v>
+        <v>1.000006232225148</v>
       </c>
       <c r="R18">
-        <v>0.9999837536536077</v>
+        <v>0.9999901549139457</v>
       </c>
       <c r="S18">
-        <v>0.9998118869398391</v>
+        <v>0.9998859610804551</v>
       </c>
       <c r="T18">
-        <v>0.9999837536536077</v>
+        <v>0.9999901549139457</v>
       </c>
       <c r="U18">
-        <v>0.9999563964687866</v>
+        <v>0.9999735688672574</v>
       </c>
       <c r="V18">
-        <v>1.000043102186155</v>
+        <v>1.000026133539339</v>
       </c>
       <c r="W18">
-        <v>0.9999614554274189</v>
+        <v>0.9999766354474919</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00042640355671</v>
+        <v>1.000003603366522</v>
       </c>
       <c r="D19">
-        <v>0.9993603933643568</v>
+        <v>0.9999945947597488</v>
       </c>
       <c r="E19">
-        <v>1.000159902414174</v>
+        <v>1.000001352110798</v>
       </c>
       <c r="F19">
-        <v>0.9998720803596823</v>
+        <v>0.999998919519446</v>
       </c>
       <c r="G19">
-        <v>0.9993603933643568</v>
+        <v>0.9999945947597488</v>
       </c>
       <c r="H19">
-        <v>0.9995841265799252</v>
+        <v>0.9999964879052931</v>
       </c>
       <c r="I19">
-        <v>1.000159902414174</v>
+        <v>1.000001352110798</v>
       </c>
       <c r="J19">
-        <v>1.000237417881563</v>
+        <v>1.000002005778389</v>
       </c>
       <c r="K19">
-        <v>0.9998625643294712</v>
+        <v>0.999998840173527</v>
       </c>
       <c r="L19">
-        <v>1.00042640355671</v>
+        <v>1.000003603366522</v>
       </c>
       <c r="M19">
-        <v>1.00042640355671</v>
+        <v>1.000003603366522</v>
       </c>
       <c r="N19">
-        <v>1.00042640355671</v>
+        <v>1.000003603366522</v>
       </c>
       <c r="O19">
-        <v>1.000159902414174</v>
+        <v>1.000001352110798</v>
       </c>
       <c r="P19">
-        <v>0.9997601478892653</v>
+        <v>0.9999979734352735</v>
       </c>
       <c r="Q19">
-        <v>1.000011233371823</v>
+        <v>1.000000096142163</v>
       </c>
       <c r="R19">
-        <v>0.9999822331117469</v>
+        <v>0.999999850079023</v>
       </c>
       <c r="S19">
-        <v>0.9997942867026671</v>
+        <v>0.9999982623480247</v>
       </c>
       <c r="T19">
-        <v>0.9999822331117468</v>
+        <v>0.999999850079023</v>
       </c>
       <c r="U19">
-        <v>0.9999523159161778</v>
+        <v>0.999999597602649</v>
       </c>
       <c r="V19">
-        <v>1.000047133444284</v>
+        <v>1.000000398755424</v>
       </c>
       <c r="W19">
-        <v>0.999957848862507</v>
+        <v>0.9999996444655653</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000180556733</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="D20">
-        <v>0.999999728956425</v>
+        <v>0.9999843820137128</v>
       </c>
       <c r="E20">
-        <v>1.000000068661215</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="F20">
-        <v>0.9999999463856302</v>
+        <v>0.9999968769057203</v>
       </c>
       <c r="G20">
-        <v>0.999999728956425</v>
+        <v>0.9999843820137128</v>
       </c>
       <c r="H20">
-        <v>0.9999998262910793</v>
+        <v>0.9999898475505646</v>
       </c>
       <c r="I20">
-        <v>1.000000068661215</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="J20">
-        <v>1.000000100301913</v>
+        <v>1.000005796625829</v>
       </c>
       <c r="K20">
-        <v>0.9999999433282843</v>
+        <v>0.9999966456822384</v>
       </c>
       <c r="L20">
-        <v>1.000000180556733</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="M20">
-        <v>1.000000180556733</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="N20">
-        <v>1.000000180556733</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="O20">
-        <v>1.000000068661215</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="P20">
-        <v>0.9999998988088199</v>
+        <v>0.9999941436781317</v>
       </c>
       <c r="Q20">
-        <v>1.00000000599475</v>
+        <v>1.000000275512395</v>
       </c>
       <c r="R20">
-        <v>0.9999999927247911</v>
+        <v>0.9999995664403641</v>
       </c>
       <c r="S20">
-        <v>0.9999999136486414</v>
+        <v>0.9999949776795006</v>
       </c>
       <c r="T20">
-        <v>0.9999999927247911</v>
+        <v>0.9999995664403641</v>
       </c>
       <c r="U20">
-        <v>0.9999999803756644</v>
+        <v>0.9999988362508327</v>
       </c>
       <c r="V20">
-        <v>1.000000020411878</v>
+        <v>1.000001151393632</v>
       </c>
       <c r="W20">
-        <v>0.9999999828928118</v>
+        <v>0.9999989714284995</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00000381009924</v>
+        <v>1.000015496252225</v>
       </c>
       <c r="D21">
-        <v>0.9999942839561042</v>
+        <v>0.9999767547500679</v>
       </c>
       <c r="E21">
-        <v>1.000001429719018</v>
+        <v>1.0000058116581</v>
       </c>
       <c r="F21">
-        <v>0.9999988572728581</v>
+        <v>0.9999953518724848</v>
       </c>
       <c r="G21">
-        <v>0.9999942839561042</v>
+        <v>0.9999767547500679</v>
       </c>
       <c r="H21">
-        <v>0.9999962857943048</v>
+        <v>0.9999848880267788</v>
       </c>
       <c r="I21">
-        <v>1.000001429719018</v>
+        <v>1.0000058116581</v>
       </c>
       <c r="J21">
-        <v>1.00000212139633</v>
+        <v>1.000008627884456</v>
       </c>
       <c r="K21">
-        <v>0.9999987734993321</v>
+        <v>0.9999950068047972</v>
       </c>
       <c r="L21">
-        <v>1.00000381009924</v>
+        <v>1.000015496252225</v>
       </c>
       <c r="M21">
-        <v>1.00000381009924</v>
+        <v>1.000015496252225</v>
       </c>
       <c r="N21">
-        <v>1.00000381009924</v>
+        <v>1.000015496252225</v>
       </c>
       <c r="O21">
-        <v>1.000001429719018</v>
+        <v>1.0000058116581</v>
       </c>
       <c r="P21">
-        <v>0.9999978568375609</v>
+        <v>0.999991283204084</v>
       </c>
       <c r="Q21">
-        <v>1.000000101609175</v>
+        <v>1.000000409231449</v>
       </c>
       <c r="R21">
-        <v>0.9999998412581205</v>
+        <v>0.9999993542201312</v>
       </c>
       <c r="S21">
-        <v>0.9999981623914845</v>
+        <v>0.9999925244043218</v>
       </c>
       <c r="T21">
-        <v>0.9999998412581205</v>
+        <v>0.9999993542201312</v>
       </c>
       <c r="U21">
-        <v>0.9999995743184233</v>
+        <v>0.9999982673662977</v>
       </c>
       <c r="V21">
-        <v>1.000000421474587</v>
+        <v>1.000001713143483</v>
       </c>
       <c r="W21">
-        <v>0.9999996239320255</v>
+        <v>0.9999984686133763</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000013413760466</v>
+        <v>1.00003251845385</v>
       </c>
       <c r="D22">
-        <v>0.9999798778628002</v>
+        <v>0.9999512206181743</v>
       </c>
       <c r="E22">
-        <v>1.000005031763651</v>
+        <v>1.000012196150037</v>
       </c>
       <c r="F22">
-        <v>0.999995977708826</v>
+        <v>0.9999902448243931</v>
       </c>
       <c r="G22">
-        <v>0.9999798778628002</v>
+        <v>0.9999512206181743</v>
       </c>
       <c r="H22">
-        <v>0.9999869190500259</v>
+        <v>0.9999682854163462</v>
       </c>
       <c r="I22">
-        <v>1.000005031763651</v>
+        <v>1.000012196150037</v>
       </c>
       <c r="J22">
-        <v>1.000007469262412</v>
+        <v>1.000018106419505</v>
       </c>
       <c r="K22">
-        <v>0.9999956787022453</v>
+        <v>0.999989521091859</v>
       </c>
       <c r="L22">
-        <v>1.000013413760466</v>
+        <v>1.00003251845385</v>
       </c>
       <c r="M22">
-        <v>1.000013413760466</v>
+        <v>1.00003251845385</v>
       </c>
       <c r="N22">
-        <v>1.000013413760466</v>
+        <v>1.00003251845385</v>
       </c>
       <c r="O22">
-        <v>1.000005031763651</v>
+        <v>1.000012196150037</v>
       </c>
       <c r="P22">
-        <v>0.9999924548132254</v>
+        <v>0.9999817083841056</v>
       </c>
       <c r="Q22">
-        <v>1.000000355232948</v>
+        <v>1.000000858620948</v>
       </c>
       <c r="R22">
-        <v>0.9999994411289723</v>
+        <v>0.9999986450740205</v>
       </c>
       <c r="S22">
-        <v>0.9999935294428987</v>
+        <v>0.9999843126200233</v>
       </c>
       <c r="T22">
-        <v>0.9999994411289723</v>
+        <v>0.9999986450740203</v>
       </c>
       <c r="U22">
-        <v>0.9999985005222906</v>
+        <v>0.9999963640784799</v>
       </c>
       <c r="V22">
-        <v>1.000001483169926</v>
+        <v>1.000003594953554</v>
       </c>
       <c r="W22">
-        <v>0.9999986749842595</v>
+        <v>0.9999967861405251</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000056549525137</v>
+      </c>
+      <c r="D23">
+        <v>0.9999151747659947</v>
+      </c>
+      <c r="E23">
+        <v>1.000021206794479</v>
+      </c>
+      <c r="F23">
+        <v>0.9999830362727102</v>
+      </c>
+      <c r="G23">
+        <v>0.9999151747659947</v>
+      </c>
+      <c r="H23">
+        <v>0.9999448485343139</v>
+      </c>
+      <c r="I23">
+        <v>1.000021206794479</v>
+      </c>
+      <c r="J23">
+        <v>1.000031486194269</v>
+      </c>
+      <c r="K23">
+        <v>0.9999817740268444</v>
+      </c>
+      <c r="L23">
+        <v>1.000056549525137</v>
+      </c>
+      <c r="M23">
+        <v>1.000056549525137</v>
+      </c>
+      <c r="N23">
+        <v>1.000056549525137</v>
+      </c>
+      <c r="O23">
+        <v>1.000021206794479</v>
+      </c>
+      <c r="P23">
+        <v>0.9999681907802367</v>
+      </c>
+      <c r="Q23">
+        <v>1.000001490410662</v>
+      </c>
+      <c r="R23">
+        <v>0.9999976436952034</v>
+      </c>
+      <c r="S23">
+        <v>0.999972718529106</v>
+      </c>
+      <c r="T23">
+        <v>0.9999976436952034</v>
+      </c>
+      <c r="U23">
+        <v>0.9999936762781136</v>
+      </c>
+      <c r="V23">
+        <v>1.000006250927518</v>
+      </c>
+      <c r="W23">
+        <v>0.9999944103635283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="D24">
+        <v>1.000938762023138</v>
+      </c>
+      <c r="E24">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="F24">
+        <v>1.000187750242171</v>
+      </c>
+      <c r="G24">
+        <v>1.000938762023138</v>
+      </c>
+      <c r="H24">
+        <v>1.000610391009779</v>
+      </c>
+      <c r="I24">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="J24">
+        <v>0.9996515416410945</v>
+      </c>
+      <c r="K24">
+        <v>1.000201720479163</v>
+      </c>
+      <c r="L24">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="M24">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="N24">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="O24">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="P24">
+        <v>1.000352035658854</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999835148868663</v>
+      </c>
+      <c r="R24">
+        <v>1.000026075886786</v>
+      </c>
+      <c r="S24">
+        <v>1.000301930598957</v>
+      </c>
+      <c r="T24">
+        <v>1.000026075886786</v>
+      </c>
+      <c r="U24">
+        <v>1.00006998703488</v>
+      </c>
+      <c r="V24">
+        <v>0.9999308208964344</v>
+      </c>
+      <c r="W24">
+        <v>1.000061867540892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="D25">
+        <v>1.000243323193166</v>
+      </c>
+      <c r="E25">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="F25">
+        <v>1.000048665987001</v>
+      </c>
+      <c r="G25">
+        <v>1.000243323193166</v>
+      </c>
+      <c r="H25">
+        <v>1.000158218555874</v>
+      </c>
+      <c r="I25">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="J25">
+        <v>0.9999096834577995</v>
+      </c>
+      <c r="K25">
+        <v>1.000052289871308</v>
+      </c>
+      <c r="L25">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="M25">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="N25">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="O25">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="P25">
+        <v>1.000091246723528</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999957300625986</v>
+      </c>
+      <c r="R25">
+        <v>1.000006759587952</v>
+      </c>
+      <c r="S25">
+        <v>1.000078261106121</v>
+      </c>
+      <c r="T25">
+        <v>1.000006759587952</v>
+      </c>
+      <c r="U25">
+        <v>1.000018142158791</v>
+      </c>
+      <c r="V25">
+        <v>0.999982070790393</v>
+      </c>
+      <c r="W25">
+        <v>1.000016038361216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="D26">
+        <v>1.000003795180401</v>
+      </c>
+      <c r="E26">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="F26">
+        <v>1.000000760577882</v>
+      </c>
+      <c r="G26">
+        <v>1.000003795180401</v>
+      </c>
+      <c r="H26">
+        <v>1.000002475634174</v>
+      </c>
+      <c r="I26">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="J26">
+        <v>0.9999985817290312</v>
+      </c>
+      <c r="K26">
+        <v>1.000000829405617</v>
+      </c>
+      <c r="L26">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="M26">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="N26">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="O26">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="P26">
+        <v>1.000001422315547</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999999394281548</v>
+      </c>
+      <c r="R26">
+        <v>1.000000102645278</v>
+      </c>
+      <c r="S26">
+        <v>1.000001224678903</v>
+      </c>
+      <c r="T26">
+        <v>1.000000102645278</v>
+      </c>
+      <c r="U26">
+        <v>1.000000284335362</v>
+      </c>
+      <c r="V26">
+        <v>0.9999997201292377</v>
+      </c>
+      <c r="W26">
+        <v>1.000000250591654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="D27">
+        <v>0.9999990055467399</v>
+      </c>
+      <c r="E27">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="F27">
+        <v>0.9999997961638373</v>
+      </c>
+      <c r="G27">
+        <v>0.9999990055467399</v>
+      </c>
+      <c r="H27">
+        <v>0.999999352278692</v>
+      </c>
+      <c r="I27">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="J27">
+        <v>1.00000036595987</v>
+      </c>
+      <c r="K27">
+        <v>0.9999997910152201</v>
+      </c>
+      <c r="L27">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="M27">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="N27">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="O27">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="P27">
+        <v>0.9999996262461586</v>
+      </c>
+      <c r="Q27">
+        <v>1.000000018980399</v>
+      </c>
+      <c r="R27">
+        <v>0.9999999722039217</v>
+      </c>
+      <c r="S27">
+        <v>0.999999681169179</v>
+      </c>
+      <c r="T27">
+        <v>0.9999999722039217</v>
+      </c>
+      <c r="U27">
+        <v>0.9999999269067463</v>
+      </c>
+      <c r="V27">
+        <v>1.000000074349287</v>
+      </c>
+      <c r="W27">
+        <v>0.9999999336218701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000850065853676</v>
+      </c>
+      <c r="D28">
+        <v>0.9987249020272994</v>
+      </c>
+      <c r="E28">
+        <v>1.000318784788647</v>
+      </c>
+      <c r="F28">
+        <v>0.9997449834724919</v>
+      </c>
+      <c r="G28">
+        <v>0.9987249020272994</v>
+      </c>
+      <c r="H28">
+        <v>0.9991709224168451</v>
+      </c>
+      <c r="I28">
+        <v>1.000318784788647</v>
+      </c>
+      <c r="J28">
+        <v>1.000473302140348</v>
+      </c>
+      <c r="K28">
+        <v>0.9997260152176012</v>
+      </c>
+      <c r="L28">
+        <v>1.000850065853676</v>
+      </c>
+      <c r="M28">
+        <v>1.000850065853676</v>
+      </c>
+      <c r="N28">
+        <v>1.000850065853676</v>
+      </c>
+      <c r="O28">
+        <v>1.000318784788647</v>
+      </c>
+      <c r="P28">
+        <v>0.9995218434079731</v>
+      </c>
+      <c r="Q28">
+        <v>1.000022400003124</v>
+      </c>
+      <c r="R28">
+        <v>0.9999645842232073</v>
+      </c>
+      <c r="S28">
+        <v>0.9995899006778491</v>
+      </c>
+      <c r="T28">
+        <v>0.9999645842232073</v>
+      </c>
+      <c r="U28">
+        <v>0.9999049419718058</v>
+      </c>
+      <c r="V28">
+        <v>1.00009396674818</v>
+      </c>
+      <c r="W28">
+        <v>0.9999159700881943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000696604971797</v>
+      </c>
+      <c r="D29">
+        <v>0.9989550930312454</v>
+      </c>
+      <c r="E29">
+        <v>1.000261234069187</v>
+      </c>
+      <c r="F29">
+        <v>0.999791020742512</v>
+      </c>
+      <c r="G29">
+        <v>0.9989550930312454</v>
+      </c>
+      <c r="H29">
+        <v>0.9993205951010528</v>
+      </c>
+      <c r="I29">
+        <v>1.000261234069187</v>
+      </c>
+      <c r="J29">
+        <v>1.000387857837038</v>
+      </c>
+      <c r="K29">
+        <v>0.999775477022158</v>
+      </c>
+      <c r="L29">
+        <v>1.000696604971797</v>
+      </c>
+      <c r="M29">
+        <v>1.000696604971797</v>
+      </c>
+      <c r="N29">
+        <v>1.000696604971797</v>
+      </c>
+      <c r="O29">
+        <v>1.000261234069187</v>
+      </c>
+      <c r="P29">
+        <v>0.999608163550216</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018355545672</v>
+      </c>
+      <c r="R29">
+        <v>0.9999709773574098</v>
+      </c>
+      <c r="S29">
+        <v>0.99966393470753</v>
+      </c>
+      <c r="T29">
+        <v>0.9999709773574098</v>
+      </c>
+      <c r="U29">
+        <v>0.9999221022735968</v>
+      </c>
+      <c r="V29">
+        <v>1.000077002813237</v>
+      </c>
+      <c r="W29">
+        <v>0.999931139605522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000389925055629</v>
+      </c>
+      <c r="D30">
+        <v>0.9994151112179247</v>
+      </c>
+      <c r="E30">
+        <v>1.000146224687269</v>
+      </c>
+      <c r="F30">
+        <v>0.9998830224442676</v>
+      </c>
+      <c r="G30">
+        <v>0.9994151112179247</v>
+      </c>
+      <c r="H30">
+        <v>0.9996197045648239</v>
+      </c>
+      <c r="I30">
+        <v>1.000146224687269</v>
+      </c>
+      <c r="J30">
+        <v>1.000217105847844</v>
+      </c>
+      <c r="K30">
+        <v>0.9998743249143235</v>
+      </c>
+      <c r="L30">
+        <v>1.000389925055629</v>
+      </c>
+      <c r="M30">
+        <v>1.000389925055629</v>
+      </c>
+      <c r="N30">
+        <v>1.000389925055629</v>
+      </c>
+      <c r="O30">
+        <v>1.000146224687269</v>
+      </c>
+      <c r="P30">
+        <v>0.9997806679525969</v>
+      </c>
+      <c r="Q30">
+        <v>1.000010274800796</v>
+      </c>
+      <c r="R30">
+        <v>0.9999837536536077</v>
+      </c>
+      <c r="S30">
+        <v>0.9998118869398391</v>
+      </c>
+      <c r="T30">
+        <v>0.9999837536536077</v>
+      </c>
+      <c r="U30">
+        <v>0.9999563964687866</v>
+      </c>
+      <c r="V30">
+        <v>1.000043102186155</v>
+      </c>
+      <c r="W30">
+        <v>0.9999614554274189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="D31">
+        <v>0.9993603933643568</v>
+      </c>
+      <c r="E31">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="F31">
+        <v>0.9998720803596823</v>
+      </c>
+      <c r="G31">
+        <v>0.9993603933643568</v>
+      </c>
+      <c r="H31">
+        <v>0.9995841265799252</v>
+      </c>
+      <c r="I31">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="J31">
+        <v>1.000237417881563</v>
+      </c>
+      <c r="K31">
+        <v>0.9998625643294712</v>
+      </c>
+      <c r="L31">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="M31">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="N31">
+        <v>1.00042640355671</v>
+      </c>
+      <c r="O31">
+        <v>1.000159902414174</v>
+      </c>
+      <c r="P31">
+        <v>0.9997601478892653</v>
+      </c>
+      <c r="Q31">
+        <v>1.000011233371823</v>
+      </c>
+      <c r="R31">
+        <v>0.9999822331117469</v>
+      </c>
+      <c r="S31">
+        <v>0.9997942867026671</v>
+      </c>
+      <c r="T31">
+        <v>0.9999822331117468</v>
+      </c>
+      <c r="U31">
+        <v>0.9999523159161778</v>
+      </c>
+      <c r="V31">
+        <v>1.000047133444284</v>
+      </c>
+      <c r="W31">
+        <v>0.999957848862507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.001050907945205</v>
+      </c>
+      <c r="D32">
+        <v>0.9984236389041091</v>
+      </c>
+      <c r="E32">
+        <v>1.000394103287671</v>
+      </c>
+      <c r="F32">
+        <v>0.9996847317808217</v>
+      </c>
+      <c r="G32">
+        <v>0.9984236389041091</v>
+      </c>
+      <c r="H32">
+        <v>0.9989750382191785</v>
+      </c>
+      <c r="I32">
+        <v>1.000394103287671</v>
+      </c>
+      <c r="J32">
+        <v>1.000585128219178</v>
+      </c>
+      <c r="K32">
+        <v>0.9996612816438358</v>
+      </c>
+      <c r="L32">
+        <v>1.001050907945205</v>
+      </c>
+      <c r="M32">
+        <v>1.001050907945205</v>
+      </c>
+      <c r="N32">
+        <v>1.001050907945205</v>
+      </c>
+      <c r="O32">
+        <v>1.000394103287671</v>
+      </c>
+      <c r="P32">
+        <v>0.9994088710958899</v>
+      </c>
+      <c r="Q32">
+        <v>1.000027692465753</v>
+      </c>
+      <c r="R32">
+        <v>0.9999562167123285</v>
+      </c>
+      <c r="S32">
+        <v>0.9994930079452052</v>
+      </c>
+      <c r="T32">
+        <v>0.9999562167123285</v>
+      </c>
+      <c r="U32">
+        <v>0.9998824829452053</v>
+      </c>
+      <c r="V32">
+        <v>1.000116167945205</v>
+      </c>
+      <c r="W32">
+        <v>0.9998961166609588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001715162631579</v>
+      </c>
+      <c r="D33">
+        <v>0.9974272557894737</v>
+      </c>
+      <c r="E33">
+        <v>1.000643181578947</v>
+      </c>
+      <c r="F33">
+        <v>0.9994854515789473</v>
+      </c>
+      <c r="G33">
+        <v>0.9974272557894737</v>
+      </c>
+      <c r="H33">
+        <v>0.9983271899999999</v>
+      </c>
+      <c r="I33">
+        <v>1.000643181578947</v>
+      </c>
+      <c r="J33">
+        <v>1.000954982105263</v>
+      </c>
+      <c r="K33">
+        <v>0.99944718</v>
+      </c>
+      <c r="L33">
+        <v>1.001715162631579</v>
+      </c>
+      <c r="M33">
+        <v>1.001715162631579</v>
+      </c>
+      <c r="N33">
+        <v>1.001715162631579</v>
+      </c>
+      <c r="O33">
+        <v>1.000643181578947</v>
+      </c>
+      <c r="P33">
+        <v>0.9990352186842105</v>
+      </c>
+      <c r="Q33">
+        <v>1.000045180789474</v>
+      </c>
+      <c r="R33">
+        <v>0.9999285333333333</v>
+      </c>
+      <c r="S33">
+        <v>0.999172539122807</v>
+      </c>
+      <c r="T33">
+        <v>0.9999285333333333</v>
+      </c>
+      <c r="U33">
+        <v>0.999808195</v>
+      </c>
+      <c r="V33">
+        <v>1.000189588526316</v>
+      </c>
+      <c r="W33">
+        <v>0.9998304481578947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="D34">
+        <v>0.9975047431578947</v>
+      </c>
+      <c r="E34">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="F34">
+        <v>0.9995009505263158</v>
+      </c>
+      <c r="G34">
+        <v>0.9975047431578947</v>
+      </c>
+      <c r="H34">
+        <v>0.9983775721052629</v>
+      </c>
+      <c r="I34">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="J34">
+        <v>1.00092622368421</v>
+      </c>
+      <c r="K34">
+        <v>0.9994638268421054</v>
+      </c>
+      <c r="L34">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="M34">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="N34">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="O34">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="P34">
+        <v>0.99906428</v>
+      </c>
+      <c r="Q34">
+        <v>1.000043821842105</v>
+      </c>
+      <c r="R34">
+        <v>0.9999306892982456</v>
+      </c>
+      <c r="S34">
+        <v>0.9991974622807018</v>
+      </c>
+      <c r="T34">
+        <v>0.9999306892982456</v>
+      </c>
+      <c r="U34">
+        <v>0.9998139736842105</v>
+      </c>
+      <c r="V34">
+        <v>1.000183880526316</v>
+      </c>
+      <c r="W34">
+        <v>0.999835557236842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.001529218738082</v>
+      </c>
+      <c r="D35">
+        <v>0.9977061614662246</v>
+      </c>
+      <c r="E35">
+        <v>1.000573464118299</v>
+      </c>
+      <c r="F35">
+        <v>0.9995412344418864</v>
+      </c>
+      <c r="G35">
+        <v>0.9977061614662246</v>
+      </c>
+      <c r="H35">
+        <v>0.9985085332582859</v>
+      </c>
+      <c r="I35">
+        <v>1.000573464118299</v>
+      </c>
+      <c r="J35">
+        <v>1.000851441904179</v>
+      </c>
+      <c r="K35">
+        <v>0.9995071070939413</v>
+      </c>
+      <c r="L35">
+        <v>1.001529218738082</v>
+      </c>
+      <c r="M35">
+        <v>1.001529218738082</v>
+      </c>
+      <c r="N35">
+        <v>1.001529218738082</v>
+      </c>
+      <c r="O35">
+        <v>1.000573464118299</v>
+      </c>
+      <c r="P35">
+        <v>0.9991398127922619</v>
+      </c>
+      <c r="Q35">
+        <v>1.00004028560612</v>
+      </c>
+      <c r="R35">
+        <v>0.9999362814408684</v>
+      </c>
+      <c r="S35">
+        <v>0.9992622442261551</v>
+      </c>
+      <c r="T35">
+        <v>0.9999362814408684</v>
+      </c>
+      <c r="U35">
+        <v>0.9998289878541367</v>
+      </c>
+      <c r="V35">
+        <v>1.000169034030926</v>
+      </c>
+      <c r="W35">
+        <v>0.9998488281423996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="D36">
+        <v>0.999999728956425</v>
+      </c>
+      <c r="E36">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="F36">
+        <v>0.9999999463856302</v>
+      </c>
+      <c r="G36">
+        <v>0.999999728956425</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998262910793</v>
+      </c>
+      <c r="I36">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="J36">
+        <v>1.000000100301913</v>
+      </c>
+      <c r="K36">
+        <v>0.9999999433282843</v>
+      </c>
+      <c r="L36">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="M36">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="N36">
+        <v>1.000000180556733</v>
+      </c>
+      <c r="O36">
+        <v>1.000000068661215</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998988088199</v>
+      </c>
+      <c r="Q36">
+        <v>1.00000000599475</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999927247911</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999136486414</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999927247911</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999803756644</v>
+      </c>
+      <c r="V36">
+        <v>1.000000020411878</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999828928118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="D37">
+        <v>0.9999942839561042</v>
+      </c>
+      <c r="E37">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="F37">
+        <v>0.9999988572728581</v>
+      </c>
+      <c r="G37">
+        <v>0.9999942839561042</v>
+      </c>
+      <c r="H37">
+        <v>0.9999962857943048</v>
+      </c>
+      <c r="I37">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="J37">
+        <v>1.00000212139633</v>
+      </c>
+      <c r="K37">
+        <v>0.9999987734993321</v>
+      </c>
+      <c r="L37">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="M37">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="N37">
+        <v>1.00000381009924</v>
+      </c>
+      <c r="O37">
+        <v>1.000001429719018</v>
+      </c>
+      <c r="P37">
+        <v>0.9999978568375609</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000101609175</v>
+      </c>
+      <c r="R37">
+        <v>0.9999998412581205</v>
+      </c>
+      <c r="S37">
+        <v>0.9999981623914845</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998412581205</v>
+      </c>
+      <c r="U37">
+        <v>0.9999995743184233</v>
+      </c>
+      <c r="V37">
+        <v>1.000000421474587</v>
+      </c>
+      <c r="W37">
+        <v>0.9999996239320255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="D38">
+        <v>0.9999798778628002</v>
+      </c>
+      <c r="E38">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="F38">
+        <v>0.999995977708826</v>
+      </c>
+      <c r="G38">
+        <v>0.9999798778628002</v>
+      </c>
+      <c r="H38">
+        <v>0.9999869190500259</v>
+      </c>
+      <c r="I38">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="J38">
+        <v>1.000007469262412</v>
+      </c>
+      <c r="K38">
+        <v>0.9999956787022453</v>
+      </c>
+      <c r="L38">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="M38">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="N38">
+        <v>1.000013413760466</v>
+      </c>
+      <c r="O38">
+        <v>1.000005031763651</v>
+      </c>
+      <c r="P38">
+        <v>0.9999924548132254</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000355232948</v>
+      </c>
+      <c r="R38">
+        <v>0.9999994411289723</v>
+      </c>
+      <c r="S38">
+        <v>0.9999935294428987</v>
+      </c>
+      <c r="T38">
+        <v>0.9999994411289723</v>
+      </c>
+      <c r="U38">
+        <v>0.9999985005222906</v>
+      </c>
+      <c r="V38">
+        <v>1.000001483169926</v>
+      </c>
+      <c r="W38">
+        <v>0.9999986749842595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000031425760861</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999528595899232</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000011785579053</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999905721344716</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999528595899232</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999693515493419</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000011785579053</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000017499928081</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999898747815763</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000031425760861</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000031425760861</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000031425760861</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000011785579053</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999982322584488</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000000830180315</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999986903099455</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999848399835175</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999986903099455</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999964864278532</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000003474294455</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.999996894362795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000592449214823</v>
+      </c>
+      <c r="D40">
+        <v>0.9991113251771403</v>
+      </c>
+      <c r="E40">
+        <v>1.000222169453412</v>
+      </c>
+      <c r="F40">
+        <v>0.9998222657641569</v>
+      </c>
+      <c r="G40">
+        <v>0.9991113251771403</v>
+      </c>
+      <c r="H40">
+        <v>0.9994221804493494</v>
+      </c>
+      <c r="I40">
+        <v>1.000222169453412</v>
+      </c>
+      <c r="J40">
+        <v>1.000329867488231</v>
+      </c>
+      <c r="K40">
+        <v>0.9998090457806069</v>
+      </c>
+      <c r="L40">
+        <v>1.000592449214823</v>
+      </c>
+      <c r="M40">
+        <v>1.000592449214823</v>
+      </c>
+      <c r="N40">
+        <v>1.000592449214823</v>
+      </c>
+      <c r="O40">
+        <v>1.000222169453412</v>
+      </c>
+      <c r="P40">
+        <v>0.999666747315276</v>
+      </c>
+      <c r="Q40">
+        <v>1.000015607617009</v>
+      </c>
+      <c r="R40">
+        <v>0.9999753146151251</v>
+      </c>
+      <c r="S40">
+        <v>0.9997141801370529</v>
+      </c>
+      <c r="T40">
+        <v>0.9999753146151251</v>
+      </c>
+      <c r="U40">
+        <v>0.9999337474064955</v>
+      </c>
+      <c r="V40">
+        <v>1.000065487768161</v>
+      </c>
+      <c r="W40">
+        <v>0.9999414340976414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996985243628227</v>
+      </c>
+      <c r="D41">
+        <v>1.00045221382457</v>
+      </c>
+      <c r="E41">
+        <v>0.9998869482815632</v>
+      </c>
+      <c r="F41">
+        <v>1.00009044399419</v>
+      </c>
+      <c r="G41">
+        <v>1.00045221382457</v>
+      </c>
+      <c r="H41">
+        <v>1.000294033886857</v>
+      </c>
+      <c r="I41">
+        <v>0.9998869482815632</v>
+      </c>
+      <c r="J41">
+        <v>0.9998321421326096</v>
+      </c>
+      <c r="K41">
+        <v>1.000097171642848</v>
+      </c>
+      <c r="L41">
+        <v>0.9996985243628227</v>
+      </c>
+      <c r="M41">
+        <v>0.9996985243628227</v>
+      </c>
+      <c r="N41">
+        <v>0.9996985243628227</v>
+      </c>
+      <c r="O41">
+        <v>0.9998869482815632</v>
+      </c>
+      <c r="P41">
+        <v>1.000169581053066</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999920599622054</v>
+      </c>
+      <c r="R41">
+        <v>1.000012562156319</v>
+      </c>
+      <c r="S41">
+        <v>1.000145444582994</v>
+      </c>
+      <c r="T41">
+        <v>1.000012562156319</v>
+      </c>
+      <c r="U41">
+        <v>1.000033714527951</v>
+      </c>
+      <c r="V41">
+        <v>0.9999666764949252</v>
+      </c>
+      <c r="W41">
+        <v>1.000029803300878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.00056521576409</v>
+      </c>
+      <c r="D42">
+        <v>0.9991521787270881</v>
+      </c>
+      <c r="E42">
+        <v>1.000211958908504</v>
+      </c>
+      <c r="F42">
+        <v>0.9998304372041126</v>
+      </c>
+      <c r="G42">
+        <v>0.9991521787270881</v>
+      </c>
+      <c r="H42">
+        <v>0.9994487422422074</v>
+      </c>
+      <c r="I42">
+        <v>1.000211958908504</v>
+      </c>
+      <c r="J42">
+        <v>1.000314702935905</v>
+      </c>
+      <c r="K42">
+        <v>0.9998178240156151</v>
+      </c>
+      <c r="L42">
+        <v>1.00056521576409</v>
+      </c>
+      <c r="M42">
+        <v>1.00056521576409</v>
+      </c>
+      <c r="N42">
+        <v>1.00056521576409</v>
+      </c>
+      <c r="O42">
+        <v>1.000211958908504</v>
+      </c>
+      <c r="P42">
+        <v>0.9996820688177959</v>
+      </c>
+      <c r="Q42">
+        <v>1.000014891462059</v>
+      </c>
+      <c r="R42">
+        <v>0.9999764511332273</v>
+      </c>
+      <c r="S42">
+        <v>0.9997273205504023</v>
+      </c>
+      <c r="T42">
+        <v>0.9999764511332273</v>
+      </c>
+      <c r="U42">
+        <v>0.9999367943538242</v>
+      </c>
+      <c r="V42">
+        <v>1.000062478635877</v>
+      </c>
+      <c r="W42">
+        <v>0.9999441273382532</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043566890628</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="D3">
-        <v>0.999934649597134</v>
+        <v>0.9999843820137128</v>
       </c>
       <c r="E3">
-        <v>1.000016339198274</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="F3">
-        <v>1.000043566890628</v>
+        <v>0.9999968769057203</v>
       </c>
       <c r="G3">
-        <v>0.9999859595111675</v>
+        <v>0.9999843820137128</v>
       </c>
       <c r="H3">
-        <v>1.000024257019314</v>
+        <v>0.9999898475505646</v>
       </c>
       <c r="I3">
-        <v>1.000043566890628</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="J3">
-        <v>0.999934649597134</v>
+        <v>1.000005796625829</v>
       </c>
       <c r="K3">
-        <v>0.9999869307455171</v>
+        <v>0.9999966456822384</v>
       </c>
       <c r="L3">
-        <v>1.000016339198274</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="M3">
-        <v>0.9999575110231653</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="N3">
-        <v>1.000043566890628</v>
+        <v>1.000010411964829</v>
       </c>
       <c r="O3">
-        <v>1.000016339198274</v>
+        <v>1.000003905342551</v>
       </c>
       <c r="P3">
-        <v>0.9999754943977042</v>
+        <v>0.9999941436781317</v>
       </c>
       <c r="Q3">
-        <v>1.000001149354721</v>
+        <v>1.000000275512395</v>
       </c>
       <c r="R3">
-        <v>0.9999981852286789</v>
+        <v>0.9999995664403641</v>
       </c>
       <c r="S3">
-        <v>0.9999789827688587</v>
+        <v>0.9999949776795006</v>
       </c>
       <c r="T3">
-        <v>0.9999981852286789</v>
+        <v>0.9999995664403641</v>
       </c>
       <c r="U3">
-        <v>0.9999951287993011</v>
+        <v>0.9999988362508327</v>
       </c>
       <c r="V3">
-        <v>1.000004816417567</v>
+        <v>1.000001151393632</v>
       </c>
       <c r="W3">
-        <v>0.9999956941479344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999989714284995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084104699112</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="D4">
-        <v>0.9998738430402672</v>
+        <v>0.9991113251771403</v>
       </c>
       <c r="E4">
-        <v>1.00003154180094</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="F4">
-        <v>1.000084104699112</v>
+        <v>0.9998222657641569</v>
       </c>
       <c r="G4">
-        <v>0.9999728937080901</v>
+        <v>0.9991113251771403</v>
       </c>
       <c r="H4">
-        <v>1.000046828368588</v>
+        <v>0.9994221804493494</v>
       </c>
       <c r="I4">
-        <v>1.000084104699112</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="J4">
-        <v>0.9998738430402672</v>
+        <v>1.000329867488231</v>
       </c>
       <c r="K4">
-        <v>0.999974770014075</v>
+        <v>0.9998090457806069</v>
       </c>
       <c r="L4">
-        <v>1.00003154180094</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="M4">
-        <v>0.9999179742579268</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="N4">
-        <v>1.000084104699112</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="O4">
-        <v>1.00003154180094</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="P4">
-        <v>0.9999526924206038</v>
+        <v>0.999666747315276</v>
       </c>
       <c r="Q4">
-        <v>1.000002217754515</v>
+        <v>1.000015607617009</v>
       </c>
       <c r="R4">
-        <v>0.9999964965134397</v>
+        <v>0.9999753146151251</v>
       </c>
       <c r="S4">
-        <v>0.9999594261830992</v>
+        <v>0.9997141801370529</v>
       </c>
       <c r="T4">
-        <v>0.9999964965134397</v>
+        <v>0.9999753146151251</v>
       </c>
       <c r="U4">
-        <v>0.9999905958121023</v>
+        <v>0.9999337474064955</v>
       </c>
       <c r="V4">
-        <v>1.000009297589504</v>
+        <v>1.000065487768161</v>
       </c>
       <c r="W4">
-        <v>0.9999916872112424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999414340976414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161173201407</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="D5">
-        <v>0.9997582390027377</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="E5">
-        <v>1.00006044325276</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="F5">
-        <v>1.000161173201407</v>
+        <v>0.9998582821829984</v>
       </c>
       <c r="G5">
-        <v>0.999948055466285</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="H5">
-        <v>1.00008974248917</v>
+        <v>0.9995392715561964</v>
       </c>
       <c r="I5">
-        <v>1.000161173201407</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="J5">
-        <v>0.9997582390027377</v>
+        <v>1.000263021188762</v>
       </c>
       <c r="K5">
-        <v>0.9999516501987257</v>
+        <v>0.9998477415994205</v>
       </c>
       <c r="L5">
-        <v>1.00006044325276</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="M5">
-        <v>0.9998428000859754</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="N5">
-        <v>1.000161173201407</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="O5">
-        <v>1.00006044325276</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="P5">
-        <v>0.9999093411277488</v>
+        <v>0.9997342791318469</v>
       </c>
       <c r="Q5">
-        <v>1.000004249359522</v>
+        <v>1.00001244564121</v>
       </c>
       <c r="R5">
-        <v>0.9999932851523017</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="S5">
-        <v>0.9999222459072609</v>
+        <v>0.9997720999543714</v>
       </c>
       <c r="T5">
-        <v>0.9999932851523017</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="U5">
-        <v>0.9999819777307974</v>
+        <v>0.9999471734510085</v>
       </c>
       <c r="V5">
-        <v>1.000017816824919</v>
+        <v>1.000052217548991</v>
       </c>
       <c r="W5">
-        <v>0.9999840683687276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9999533023018736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236392227664</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="D6">
-        <v>0.9996454187910688</v>
+        <v>0.9977061614662246</v>
       </c>
       <c r="E6">
-        <v>1.000088653723104</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="F6">
-        <v>1.000236392227664</v>
+        <v>0.9995412344418864</v>
       </c>
       <c r="G6">
-        <v>0.9999238107271923</v>
+        <v>0.9977061614662246</v>
       </c>
       <c r="H6">
-        <v>1.000131618391177</v>
+        <v>0.9985085332582859</v>
       </c>
       <c r="I6">
-        <v>1.000236392227664</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="J6">
-        <v>0.9996454187910688</v>
+        <v>1.000851441904179</v>
       </c>
       <c r="K6">
-        <v>0.9999290867128668</v>
+        <v>0.9995071070939413</v>
       </c>
       <c r="L6">
-        <v>1.000088653723104</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="M6">
-        <v>0.9997694492837572</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="N6">
-        <v>1.000236392227664</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="O6">
-        <v>1.000088653723104</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="P6">
-        <v>0.9998670362570865</v>
+        <v>0.9991398127922619</v>
       </c>
       <c r="Q6">
-        <v>1.000006232225148</v>
+        <v>1.00004028560612</v>
       </c>
       <c r="R6">
-        <v>0.9999901549139457</v>
+        <v>0.9999362814408684</v>
       </c>
       <c r="S6">
-        <v>0.9998859610804551</v>
+        <v>0.9992622442261551</v>
       </c>
       <c r="T6">
-        <v>0.9999901549139457</v>
+        <v>0.9999362814408684</v>
       </c>
       <c r="U6">
-        <v>0.9999735688672574</v>
+        <v>0.9998289878541367</v>
       </c>
       <c r="V6">
-        <v>1.000026133539339</v>
+        <v>1.000169034030926</v>
       </c>
       <c r="W6">
-        <v>0.9999766354474919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9998488281423996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003603366522</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="D7">
-        <v>0.9999945947597488</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="E7">
-        <v>1.000001352110798</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="F7">
-        <v>1.000003603366522</v>
+        <v>0.9999842831611406</v>
       </c>
       <c r="G7">
-        <v>0.999998840173527</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="H7">
-        <v>1.000002005778389</v>
+        <v>0.9999489050529794</v>
       </c>
       <c r="I7">
-        <v>1.000003603366522</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="J7">
-        <v>0.9999945947597488</v>
+        <v>1.00002916962818</v>
       </c>
       <c r="K7">
-        <v>0.999998919519446</v>
+        <v>0.9999831154099968</v>
       </c>
       <c r="L7">
-        <v>1.000001352110798</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="M7">
-        <v>0.9999964879052931</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="N7">
-        <v>1.000003603366522</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="O7">
-        <v>1.000001352110798</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="P7">
-        <v>0.9999979734352735</v>
+        <v>0.9999705309189701</v>
       </c>
       <c r="Q7">
-        <v>1.000000096142163</v>
+        <v>1.000001381665795</v>
       </c>
       <c r="R7">
-        <v>0.999999850079023</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="S7">
-        <v>0.9999982623480247</v>
+        <v>0.9999747257493125</v>
       </c>
       <c r="T7">
-        <v>0.999999850079023</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="U7">
-        <v>0.999999597602649</v>
+        <v>0.999994142091137</v>
       </c>
       <c r="V7">
-        <v>1.000000398755424</v>
+        <v>1.000005791896232</v>
       </c>
       <c r="W7">
-        <v>0.9999996444655653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999948217660553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000010411964829</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="D8">
-        <v>0.999984382013713</v>
+        <v>0.9999942839561042</v>
       </c>
       <c r="E8">
-        <v>1.000003905342551</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="F8">
-        <v>1.000010411964829</v>
+        <v>0.9999988572728581</v>
       </c>
       <c r="G8">
-        <v>0.9999966456822384</v>
+        <v>0.9999942839561042</v>
       </c>
       <c r="H8">
-        <v>1.000005796625829</v>
+        <v>0.9999962857943048</v>
       </c>
       <c r="I8">
-        <v>1.000010411964829</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="J8">
-        <v>0.999984382013713</v>
+        <v>1.00000212139633</v>
       </c>
       <c r="K8">
-        <v>0.9999968769057203</v>
+        <v>0.9999987734993321</v>
       </c>
       <c r="L8">
-        <v>1.000003905342551</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="M8">
-        <v>0.9999898475505646</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="N8">
-        <v>1.000010411964829</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="O8">
-        <v>1.000003905342551</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="P8">
-        <v>0.9999941436781319</v>
+        <v>0.9999978568375609</v>
       </c>
       <c r="Q8">
-        <v>1.000000275512395</v>
+        <v>1.000000101609175</v>
       </c>
       <c r="R8">
-        <v>0.9999995664403641</v>
+        <v>0.9999998412581205</v>
       </c>
       <c r="S8">
-        <v>0.9999949776795006</v>
+        <v>0.9999981623914845</v>
       </c>
       <c r="T8">
-        <v>0.9999995664403641</v>
+        <v>0.9999998412581205</v>
       </c>
       <c r="U8">
-        <v>0.9999988362508327</v>
+        <v>0.9999995743184233</v>
       </c>
       <c r="V8">
-        <v>1.000001151393632</v>
+        <v>1.000000421474587</v>
       </c>
       <c r="W8">
-        <v>0.9999989714284995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999996239320255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000015496252225</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="D9">
-        <v>0.9999767547500679</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="E9">
-        <v>1.0000058116581</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="F9">
-        <v>1.000015496252225</v>
+        <v>0.999974770014075</v>
       </c>
       <c r="G9">
-        <v>0.9999950068047972</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="H9">
-        <v>1.000008627884456</v>
+        <v>0.9999179742579268</v>
       </c>
       <c r="I9">
-        <v>1.000015496252225</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="J9">
-        <v>0.9999767547500679</v>
+        <v>1.000046828368588</v>
       </c>
       <c r="K9">
-        <v>0.9999953518724848</v>
+        <v>0.9999728937080901</v>
       </c>
       <c r="L9">
-        <v>1.0000058116581</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="M9">
-        <v>0.9999848880267788</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="N9">
-        <v>1.000015496252225</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="O9">
-        <v>1.0000058116581</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="P9">
-        <v>0.999991283204084</v>
+        <v>0.9999526924206038</v>
       </c>
       <c r="Q9">
-        <v>1.000000409231449</v>
+        <v>1.000002217754515</v>
       </c>
       <c r="R9">
-        <v>0.9999993542201312</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="S9">
-        <v>0.9999925244043218</v>
+        <v>0.9999594261830992</v>
       </c>
       <c r="T9">
-        <v>0.9999993542201312</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="U9">
-        <v>0.9999982673662977</v>
+        <v>0.9999905958121023</v>
       </c>
       <c r="V9">
-        <v>1.000001713143483</v>
+        <v>1.000009297589504</v>
       </c>
       <c r="W9">
-        <v>0.9999984686133763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999916872112424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00003251845385</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="D10">
-        <v>0.9999512206181743</v>
+        <v>0.9976720846732267</v>
       </c>
       <c r="E10">
-        <v>1.000012196150037</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="F10">
-        <v>1.00003251845385</v>
+        <v>0.9995344188335389</v>
       </c>
       <c r="G10">
-        <v>0.9999895210918589</v>
+        <v>0.9976720846732267</v>
       </c>
       <c r="H10">
-        <v>1.000018106419505</v>
+        <v>0.9984863764635588</v>
       </c>
       <c r="I10">
-        <v>1.00003251845385</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="J10">
-        <v>0.9999512206181743</v>
+        <v>1.000864090724203</v>
       </c>
       <c r="K10">
-        <v>0.9999902448243931</v>
+        <v>0.9994997847790779</v>
       </c>
       <c r="L10">
-        <v>1.000012196150037</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="M10">
-        <v>0.9999682854163462</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="N10">
-        <v>1.00003251845385</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="O10">
-        <v>1.000012196150037</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="P10">
-        <v>0.9999817083841056</v>
+        <v>0.999127033877798</v>
       </c>
       <c r="Q10">
-        <v>1.000000858620948</v>
+        <v>1.000040883930724</v>
       </c>
       <c r="R10">
-        <v>0.9999986450740205</v>
+        <v>0.9999353347508265</v>
       </c>
       <c r="S10">
-        <v>0.9999843126200233</v>
+        <v>0.9992512841782246</v>
       </c>
       <c r="T10">
-        <v>0.9999986450740203</v>
+        <v>0.9999353347508265</v>
       </c>
       <c r="U10">
-        <v>0.9999963640784799</v>
+        <v>0.9998264472578894</v>
       </c>
       <c r="V10">
-        <v>1.000003594953554</v>
+        <v>1.000171545105688</v>
       </c>
       <c r="W10">
-        <v>0.9999967861405252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9998465822669036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000056549525137</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="D11">
-        <v>0.9999151747659947</v>
+        <v>0.9995480303239349</v>
       </c>
       <c r="E11">
-        <v>1.000021206794479</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="F11">
-        <v>1.000056549525137</v>
+        <v>0.9999096074610596</v>
       </c>
       <c r="G11">
-        <v>0.9999817740268444</v>
+        <v>0.9995480303239349</v>
       </c>
       <c r="H11">
-        <v>1.000031486194269</v>
+        <v>0.9997061278021158</v>
       </c>
       <c r="I11">
-        <v>1.000056549525137</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="J11">
-        <v>0.9999151747659947</v>
+        <v>1.000167767357299</v>
       </c>
       <c r="K11">
-        <v>0.9999830362727102</v>
+        <v>0.9999028833104653</v>
       </c>
       <c r="L11">
-        <v>1.000021206794479</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="M11">
-        <v>0.9999448485343136</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="N11">
-        <v>1.000056549525137</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="O11">
-        <v>1.000021206794479</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="P11">
-        <v>0.9999681907802367</v>
+        <v>0.9998305121178748</v>
       </c>
       <c r="Q11">
-        <v>1.000001490410662</v>
+        <v>1.00000793861114</v>
       </c>
       <c r="R11">
-        <v>0.9999976436952034</v>
+        <v>0.9999874457066724</v>
       </c>
       <c r="S11">
-        <v>0.999972718529106</v>
+        <v>0.9998546358487382</v>
       </c>
       <c r="T11">
-        <v>0.9999976436952034</v>
+        <v>0.9999874457066724</v>
       </c>
       <c r="U11">
-        <v>0.9999936762781136</v>
+        <v>0.9999663051076206</v>
       </c>
       <c r="V11">
-        <v>1.000006250927518</v>
+        <v>1.00003330666295</v>
       </c>
       <c r="W11">
-        <v>0.9999944103635283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9999702146203464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993741563426508</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="D12">
-        <v>1.000938762023138</v>
+        <v>0.9992923655894741</v>
       </c>
       <c r="E12">
-        <v>0.9997653092945696</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="F12">
-        <v>0.9993741563426508</v>
+        <v>0.9998584732421052</v>
       </c>
       <c r="G12">
-        <v>1.000201720479163</v>
+        <v>0.9992923655894741</v>
       </c>
       <c r="H12">
-        <v>0.9996515416410945</v>
+        <v>0.9995398946947365</v>
       </c>
       <c r="I12">
-        <v>0.9993741563426508</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="J12">
-        <v>1.000938762023138</v>
+        <v>1.000262665168423</v>
       </c>
       <c r="K12">
-        <v>1.000187750242171</v>
+        <v>0.999847947200002</v>
       </c>
       <c r="L12">
-        <v>0.9997653092945696</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="M12">
-        <v>1.000610391009779</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="N12">
-        <v>0.9993741563426508</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="O12">
-        <v>0.9997653092945696</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="P12">
-        <v>1.000352035658854</v>
+        <v>0.9997346378473685</v>
       </c>
       <c r="Q12">
-        <v>0.9999835148868663</v>
+        <v>1.000012428652632</v>
       </c>
       <c r="R12">
-        <v>1.000026075886786</v>
+        <v>0.9999803435649115</v>
       </c>
       <c r="S12">
-        <v>1.000301930598957</v>
+        <v>0.9997724076315797</v>
       </c>
       <c r="T12">
-        <v>1.000026075886786</v>
+        <v>0.9999803435649115</v>
       </c>
       <c r="U12">
-        <v>1.00006998703488</v>
+        <v>0.9999472444736841</v>
       </c>
       <c r="V12">
-        <v>0.9999308208964344</v>
+        <v>1.000052146578947</v>
       </c>
       <c r="W12">
-        <v>1.000061867540892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.999953365138158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998377853168013</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="D13">
-        <v>1.000243323193166</v>
+        <v>1.000457838205996</v>
       </c>
       <c r="E13">
-        <v>0.9999391702538896</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="F13">
-        <v>0.9998377853168013</v>
+        <v>1.000091567955177</v>
       </c>
       <c r="G13">
-        <v>1.000052289871308</v>
+        <v>1.000457838205996</v>
       </c>
       <c r="H13">
-        <v>0.9999096834577995</v>
+        <v>1.000297694072916</v>
       </c>
       <c r="I13">
-        <v>0.9998377853168013</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="J13">
-        <v>1.000243323193166</v>
+        <v>0.9998300536928426</v>
       </c>
       <c r="K13">
-        <v>1.000048665987001</v>
+        <v>1.00009838075011</v>
       </c>
       <c r="L13">
-        <v>0.9999391702538896</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="M13">
-        <v>1.000158218555874</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="N13">
-        <v>0.9998377853168013</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="O13">
-        <v>0.9999391702538896</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="P13">
-        <v>1.000091246723528</v>
+        <v>1.000171688948991</v>
       </c>
       <c r="Q13">
-        <v>0.9999957300625986</v>
+        <v>0.9999919602210481</v>
       </c>
       <c r="R13">
-        <v>1.000006759587952</v>
+        <v>1.000012716602025</v>
       </c>
       <c r="S13">
-        <v>1.000078261106121</v>
+        <v>1.000147252882698</v>
       </c>
       <c r="T13">
-        <v>1.000006759587952</v>
+        <v>1.000012716602025</v>
       </c>
       <c r="U13">
-        <v>1.000018142158791</v>
+        <v>1.000034132639046</v>
       </c>
       <c r="V13">
-        <v>0.999982070790393</v>
+        <v>0.9999662604928556</v>
       </c>
       <c r="W13">
-        <v>1.000016038361216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000030173246138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999974633047399</v>
+        <v>1.0026813</v>
       </c>
       <c r="D14">
-        <v>1.000003795180401</v>
+        <v>0.9959780300000018</v>
       </c>
       <c r="E14">
-        <v>0.9999990494506928</v>
+        <v>1.0010055</v>
       </c>
       <c r="F14">
-        <v>0.9999974633047399</v>
+        <v>0.9991956100000006</v>
       </c>
       <c r="G14">
-        <v>1.000000829405617</v>
+        <v>0.9959780300000018</v>
       </c>
       <c r="H14">
-        <v>0.9999985817290312</v>
+        <v>0.99738489</v>
       </c>
       <c r="I14">
-        <v>0.9999974633047399</v>
+        <v>1.0010055</v>
       </c>
       <c r="J14">
-        <v>1.000003795180401</v>
+        <v>1.001492900000001</v>
       </c>
       <c r="K14">
-        <v>1.000000760577882</v>
+        <v>0.9991357700000003</v>
       </c>
       <c r="L14">
-        <v>0.9999990494506928</v>
+        <v>1.0026813</v>
       </c>
       <c r="M14">
-        <v>1.000002475634174</v>
+        <v>1.0026813</v>
       </c>
       <c r="N14">
-        <v>0.9999974633047399</v>
+        <v>1.0026813</v>
       </c>
       <c r="O14">
-        <v>0.9999990494506928</v>
+        <v>1.0010055</v>
       </c>
       <c r="P14">
-        <v>1.000001422315547</v>
+        <v>0.9984917650000009</v>
       </c>
       <c r="Q14">
-        <v>0.9999999394281549</v>
+        <v>1.000070635</v>
       </c>
       <c r="R14">
-        <v>1.000000102645278</v>
+        <v>0.9998882766666674</v>
       </c>
       <c r="S14">
-        <v>1.000001224678903</v>
+        <v>0.998706433333334</v>
       </c>
       <c r="T14">
-        <v>1.000000102645278</v>
+        <v>0.9998882766666674</v>
       </c>
       <c r="U14">
-        <v>1.000000284335363</v>
+        <v>0.9997001500000007</v>
       </c>
       <c r="V14">
-        <v>0.9999997201292381</v>
+        <v>1.00029638</v>
       </c>
       <c r="W14">
-        <v>1.000000250591654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9997349375000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000000664119448</v>
+        <v>1.0043208</v>
       </c>
       <c r="D15">
-        <v>0.9999990055467399</v>
+        <v>0.99351878</v>
       </c>
       <c r="E15">
-        <v>1.000000246945577</v>
+        <v>1.0016203</v>
       </c>
       <c r="F15">
-        <v>1.000000664119448</v>
+        <v>0.9987037600000001</v>
       </c>
       <c r="G15">
-        <v>0.9999997910152201</v>
+        <v>0.99351878</v>
       </c>
       <c r="H15">
-        <v>1.00000036595987</v>
+        <v>0.99578587</v>
       </c>
       <c r="I15">
-        <v>1.000000664119448</v>
+        <v>1.0016203</v>
       </c>
       <c r="J15">
-        <v>0.9999990055467399</v>
+        <v>1.0024058</v>
       </c>
       <c r="K15">
-        <v>0.9999997961638373</v>
+        <v>0.99860734</v>
       </c>
       <c r="L15">
-        <v>1.000000246945577</v>
+        <v>1.0043208</v>
       </c>
       <c r="M15">
-        <v>0.9999993522786919</v>
+        <v>1.0043208</v>
       </c>
       <c r="N15">
-        <v>1.000000664119448</v>
+        <v>1.0043208</v>
       </c>
       <c r="O15">
-        <v>1.000000246945577</v>
+        <v>1.0016203</v>
       </c>
       <c r="P15">
-        <v>0.9999996262461586</v>
+        <v>0.99756954</v>
       </c>
       <c r="Q15">
-        <v>1.000000018980399</v>
+        <v>1.00011382</v>
       </c>
       <c r="R15">
-        <v>0.9999999722039217</v>
+        <v>0.99981996</v>
       </c>
       <c r="S15">
-        <v>0.999999681169179</v>
+        <v>0.9979154733333333</v>
       </c>
       <c r="T15">
-        <v>0.9999999722039217</v>
+        <v>0.99981996</v>
       </c>
       <c r="U15">
-        <v>0.9999999269067463</v>
+        <v>0.999516805</v>
       </c>
       <c r="V15">
-        <v>1.000000074349287</v>
+        <v>1.000477604</v>
       </c>
       <c r="W15">
-        <v>0.9999999336218701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9995728687500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000180556734</v>
+        <v>1.0041638</v>
       </c>
       <c r="D16">
-        <v>0.999999728956425</v>
+        <v>0.99375433</v>
       </c>
       <c r="E16">
-        <v>1.000000068661215</v>
+        <v>1.0015614</v>
       </c>
       <c r="F16">
-        <v>1.000000180556734</v>
+        <v>0.99875087</v>
       </c>
       <c r="G16">
-        <v>0.9999999433282843</v>
+        <v>0.99375433</v>
       </c>
       <c r="H16">
-        <v>1.000000100301913</v>
+        <v>0.9959390299999999</v>
       </c>
       <c r="I16">
-        <v>1.000000180556734</v>
+        <v>1.0015614</v>
       </c>
       <c r="J16">
-        <v>0.999999728956425</v>
+        <v>1.0023183</v>
       </c>
       <c r="K16">
-        <v>0.9999999463856302</v>
+        <v>0.99865795</v>
       </c>
       <c r="L16">
-        <v>1.000000068661215</v>
+        <v>1.0041638</v>
       </c>
       <c r="M16">
-        <v>0.9999998262910793</v>
+        <v>1.0041638</v>
       </c>
       <c r="N16">
-        <v>1.000000180556734</v>
+        <v>1.0041638</v>
       </c>
       <c r="O16">
-        <v>1.000000068661215</v>
+        <v>1.0015614</v>
       </c>
       <c r="P16">
-        <v>0.9999998988088199</v>
+        <v>0.997657865</v>
       </c>
       <c r="Q16">
-        <v>1.00000000599475</v>
+        <v>1.000109675</v>
       </c>
       <c r="R16">
-        <v>0.9999999927247911</v>
+        <v>0.99982651</v>
       </c>
       <c r="S16">
-        <v>0.9999999136486414</v>
+        <v>0.9979912266666666</v>
       </c>
       <c r="T16">
-        <v>0.9999999927247911</v>
+        <v>0.99982651</v>
       </c>
       <c r="U16">
-        <v>0.9999999803756644</v>
+        <v>0.99953437</v>
       </c>
       <c r="V16">
-        <v>1.000000020411878</v>
+        <v>1.000460256</v>
       </c>
       <c r="W16">
-        <v>0.9999999828928118</v>
+        <v>0.999588385</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000381009924</v>
+        <v>1.0010898</v>
       </c>
       <c r="D17">
-        <v>0.9999942839561042</v>
+        <v>0.9983653</v>
       </c>
       <c r="E17">
-        <v>1.000001429719018</v>
+        <v>1.0004087</v>
       </c>
       <c r="F17">
-        <v>1.00000381009924</v>
+        <v>0.9996730599999999</v>
       </c>
       <c r="G17">
-        <v>0.999998773499332</v>
+        <v>0.9983653</v>
       </c>
       <c r="H17">
-        <v>1.00000212139633</v>
+        <v>0.99893711</v>
       </c>
       <c r="I17">
-        <v>1.00000381009924</v>
+        <v>1.0004087</v>
       </c>
       <c r="J17">
-        <v>0.9999942839561042</v>
+        <v>1.0006068</v>
       </c>
       <c r="K17">
-        <v>0.9999988572728581</v>
+        <v>0.99964874</v>
       </c>
       <c r="L17">
-        <v>1.000001429719018</v>
+        <v>1.0010898</v>
       </c>
       <c r="M17">
-        <v>0.9999962857943048</v>
+        <v>1.0010898</v>
       </c>
       <c r="N17">
-        <v>1.00000381009924</v>
+        <v>1.0010898</v>
       </c>
       <c r="O17">
-        <v>1.000001429719018</v>
+        <v>1.0004087</v>
       </c>
       <c r="P17">
-        <v>0.9999978568375609</v>
+        <v>0.999387</v>
       </c>
       <c r="Q17">
-        <v>1.000000101609175</v>
+        <v>1.00002872</v>
       </c>
       <c r="R17">
-        <v>0.9999998412581205</v>
+        <v>0.9999546</v>
       </c>
       <c r="S17">
-        <v>0.9999981623914845</v>
+        <v>0.9994742466666667</v>
       </c>
       <c r="T17">
-        <v>0.9999998412581205</v>
+        <v>0.9999546</v>
       </c>
       <c r="U17">
-        <v>0.9999995743184233</v>
+        <v>0.999878135</v>
       </c>
       <c r="V17">
-        <v>1.000000421474587</v>
+        <v>1.000120468</v>
       </c>
       <c r="W17">
-        <v>0.9999996239320255</v>
+        <v>0.99989227625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013413760466</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="D18">
-        <v>0.9999798778628002</v>
+        <v>0.9984236389041091</v>
       </c>
       <c r="E18">
-        <v>1.000005031763651</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="F18">
-        <v>1.000013413760466</v>
+        <v>0.9996847317808217</v>
       </c>
       <c r="G18">
-        <v>0.9999956787022453</v>
+        <v>0.9984236389041091</v>
       </c>
       <c r="H18">
-        <v>1.000007469262412</v>
+        <v>0.9989750382191785</v>
       </c>
       <c r="I18">
-        <v>1.000013413760466</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="J18">
-        <v>0.9999798778628002</v>
+        <v>1.000585128219178</v>
       </c>
       <c r="K18">
-        <v>0.999995977708826</v>
+        <v>0.9996612816438358</v>
       </c>
       <c r="L18">
-        <v>1.000005031763651</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="M18">
-        <v>0.9999869190500262</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="N18">
-        <v>1.000013413760466</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="O18">
-        <v>1.000005031763651</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="P18">
-        <v>0.9999924548132254</v>
+        <v>0.9994088710958899</v>
       </c>
       <c r="Q18">
-        <v>1.000000355232948</v>
+        <v>1.000027692465753</v>
       </c>
       <c r="R18">
-        <v>0.9999994411289723</v>
+        <v>0.9999562167123285</v>
       </c>
       <c r="S18">
-        <v>0.9999935294428987</v>
+        <v>0.9994930079452052</v>
       </c>
       <c r="T18">
-        <v>0.9999994411289723</v>
+        <v>0.9999562167123285</v>
       </c>
       <c r="U18">
-        <v>0.9999985005222906</v>
+        <v>0.9998824829452053</v>
       </c>
       <c r="V18">
-        <v>1.000001483169926</v>
+        <v>1.000116167945205</v>
       </c>
       <c r="W18">
-        <v>0.9999986749842597</v>
+        <v>0.9998961166609588</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031425760861</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="D19">
-        <v>0.9999528595899232</v>
+        <v>0.9974272557894737</v>
       </c>
       <c r="E19">
-        <v>1.000011785579053</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="F19">
-        <v>1.000031425760861</v>
+        <v>0.9994854515789473</v>
       </c>
       <c r="G19">
-        <v>0.9999898747815763</v>
+        <v>0.9974272557894737</v>
       </c>
       <c r="H19">
-        <v>1.000017499928081</v>
+        <v>0.9983271899999999</v>
       </c>
       <c r="I19">
-        <v>1.000031425760861</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="J19">
-        <v>0.9999528595899232</v>
+        <v>1.000954982105263</v>
       </c>
       <c r="K19">
-        <v>0.9999905721344716</v>
+        <v>0.99944718</v>
       </c>
       <c r="L19">
-        <v>1.000011785579053</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="M19">
-        <v>0.9999693515493419</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="N19">
-        <v>1.000031425760861</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="O19">
-        <v>1.000011785579053</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="P19">
-        <v>0.999982322584488</v>
+        <v>0.9990352186842105</v>
       </c>
       <c r="Q19">
-        <v>1.000000830180315</v>
+        <v>1.000045180789474</v>
       </c>
       <c r="R19">
-        <v>0.9999986903099455</v>
+        <v>0.9999285333333333</v>
       </c>
       <c r="S19">
-        <v>0.9999848399835175</v>
+        <v>0.999172539122807</v>
       </c>
       <c r="T19">
-        <v>0.9999986903099455</v>
+        <v>0.9999285333333333</v>
       </c>
       <c r="U19">
-        <v>0.9999964864278532</v>
+        <v>0.999808195</v>
       </c>
       <c r="V19">
-        <v>1.000003474294455</v>
+        <v>1.000189588526316</v>
       </c>
       <c r="W19">
-        <v>0.999996894362795</v>
+        <v>0.9998304481578947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="D20">
+        <v>0.9975047431578947</v>
+      </c>
+      <c r="E20">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="F20">
+        <v>0.9995009505263158</v>
+      </c>
+      <c r="G20">
+        <v>0.9975047431578947</v>
+      </c>
+      <c r="H20">
+        <v>0.9983775721052629</v>
+      </c>
+      <c r="I20">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="J20">
+        <v>1.00092622368421</v>
+      </c>
+      <c r="K20">
+        <v>0.9994638268421054</v>
+      </c>
+      <c r="L20">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="M20">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="N20">
+        <v>1.001663507894737</v>
+      </c>
+      <c r="O20">
+        <v>1.000623816842105</v>
+      </c>
+      <c r="P20">
+        <v>0.99906428</v>
+      </c>
+      <c r="Q20">
+        <v>1.000043821842105</v>
+      </c>
+      <c r="R20">
+        <v>0.9999306892982456</v>
+      </c>
+      <c r="S20">
+        <v>0.9991974622807018</v>
+      </c>
+      <c r="T20">
+        <v>0.9999306892982456</v>
+      </c>
+      <c r="U20">
+        <v>0.9998139736842105</v>
+      </c>
+      <c r="V20">
+        <v>1.000183880526316</v>
+      </c>
+      <c r="W20">
+        <v>0.999835557236842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="D21">
+        <v>1.000003795180401</v>
+      </c>
+      <c r="E21">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="F21">
+        <v>1.000000760577882</v>
+      </c>
+      <c r="G21">
+        <v>1.000003795180401</v>
+      </c>
+      <c r="H21">
+        <v>1.000002475634174</v>
+      </c>
+      <c r="I21">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="J21">
+        <v>0.9999985817290312</v>
+      </c>
+      <c r="K21">
+        <v>1.000000829405617</v>
+      </c>
+      <c r="L21">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="M21">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="N21">
+        <v>0.9999974633047395</v>
+      </c>
+      <c r="O21">
+        <v>0.9999990494506927</v>
+      </c>
+      <c r="P21">
+        <v>1.000001422315547</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999999394281548</v>
+      </c>
+      <c r="R21">
+        <v>1.000000102645278</v>
+      </c>
+      <c r="S21">
+        <v>1.000001224678903</v>
+      </c>
+      <c r="T21">
+        <v>1.000000102645278</v>
+      </c>
+      <c r="U21">
+        <v>1.000000284335362</v>
+      </c>
+      <c r="V21">
+        <v>0.9999997201292377</v>
+      </c>
+      <c r="W21">
+        <v>1.000000250591654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="D22">
+        <v>0.9999990055467399</v>
+      </c>
+      <c r="E22">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="F22">
+        <v>0.9999997961638373</v>
+      </c>
+      <c r="G22">
+        <v>0.9999990055467399</v>
+      </c>
+      <c r="H22">
+        <v>0.999999352278692</v>
+      </c>
+      <c r="I22">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="J22">
+        <v>1.00000036595987</v>
+      </c>
+      <c r="K22">
+        <v>0.9999997910152201</v>
+      </c>
+      <c r="L22">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="M22">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="N22">
+        <v>1.000000664119448</v>
+      </c>
+      <c r="O22">
+        <v>1.000000246945577</v>
+      </c>
+      <c r="P22">
+        <v>0.9999996262461586</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000018980399</v>
+      </c>
+      <c r="R22">
+        <v>0.9999999722039217</v>
+      </c>
+      <c r="S22">
+        <v>0.999999681169179</v>
+      </c>
+      <c r="T22">
+        <v>0.9999999722039217</v>
+      </c>
+      <c r="U22">
+        <v>0.9999999269067463</v>
+      </c>
+      <c r="V22">
+        <v>1.000000074349287</v>
+      </c>
+      <c r="W22">
+        <v>0.9999999336218701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="D23">
+        <v>1.000938762023138</v>
+      </c>
+      <c r="E23">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="F23">
+        <v>1.000187750242171</v>
+      </c>
+      <c r="G23">
+        <v>1.000938762023138</v>
+      </c>
+      <c r="H23">
+        <v>1.000610391009779</v>
+      </c>
+      <c r="I23">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="J23">
+        <v>0.9996515416410945</v>
+      </c>
+      <c r="K23">
+        <v>1.000201720479163</v>
+      </c>
+      <c r="L23">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="M23">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="N23">
+        <v>0.9993741563426508</v>
+      </c>
+      <c r="O23">
+        <v>0.9997653092945696</v>
+      </c>
+      <c r="P23">
+        <v>1.000352035658854</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999835148868663</v>
+      </c>
+      <c r="R23">
+        <v>1.000026075886786</v>
+      </c>
+      <c r="S23">
+        <v>1.000301930598957</v>
+      </c>
+      <c r="T23">
+        <v>1.000026075886786</v>
+      </c>
+      <c r="U23">
+        <v>1.00006998703488</v>
+      </c>
+      <c r="V23">
+        <v>0.9999308208964344</v>
+      </c>
+      <c r="W23">
+        <v>1.000061867540892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="D24">
+        <v>1.000243323193166</v>
+      </c>
+      <c r="E24">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="F24">
+        <v>1.000048665987001</v>
+      </c>
+      <c r="G24">
+        <v>1.000243323193166</v>
+      </c>
+      <c r="H24">
+        <v>1.000158218555874</v>
+      </c>
+      <c r="I24">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="J24">
+        <v>0.9999096834577995</v>
+      </c>
+      <c r="K24">
+        <v>1.000052289871308</v>
+      </c>
+      <c r="L24">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="M24">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="N24">
+        <v>0.9998377853168013</v>
+      </c>
+      <c r="O24">
+        <v>0.9999391702538896</v>
+      </c>
+      <c r="P24">
+        <v>1.000091246723528</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999957300625986</v>
+      </c>
+      <c r="R24">
+        <v>1.000006759587952</v>
+      </c>
+      <c r="S24">
+        <v>1.000078261106121</v>
+      </c>
+      <c r="T24">
+        <v>1.000006759587952</v>
+      </c>
+      <c r="U24">
+        <v>1.000018142158791</v>
+      </c>
+      <c r="V24">
+        <v>0.999982070790393</v>
+      </c>
+      <c r="W24">
+        <v>1.000016038361216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998487039272999</v>
+      </c>
+      <c r="D25">
+        <v>1.000226936321122</v>
+      </c>
+      <c r="E25">
+        <v>0.999943265563492</v>
+      </c>
+      <c r="F25">
+        <v>1.000045395924158</v>
+      </c>
+      <c r="G25">
+        <v>1.000226936321122</v>
+      </c>
+      <c r="H25">
+        <v>1.000147567502872</v>
+      </c>
+      <c r="I25">
+        <v>0.999943265563492</v>
+      </c>
+      <c r="J25">
+        <v>0.9999157633476052</v>
+      </c>
+      <c r="K25">
+        <v>1.000048770510624</v>
+      </c>
+      <c r="L25">
+        <v>0.9998487039272999</v>
+      </c>
+      <c r="M25">
+        <v>0.9998487039272999</v>
+      </c>
+      <c r="N25">
+        <v>0.9998487039272999</v>
+      </c>
+      <c r="O25">
+        <v>0.999943265563492</v>
+      </c>
+      <c r="P25">
+        <v>1.000085100942307</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999960180370582</v>
+      </c>
+      <c r="R25">
+        <v>1.000006301937305</v>
+      </c>
+      <c r="S25">
+        <v>1.000072990798413</v>
+      </c>
+      <c r="T25">
+        <v>1.000006301937305</v>
+      </c>
+      <c r="U25">
+        <v>1.000016919080635</v>
+      </c>
+      <c r="V25">
+        <v>0.9999832760499677</v>
+      </c>
+      <c r="W25">
+        <v>1.000014958582583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9999608861430194</v>
+      </c>
+      <c r="D26">
+        <v>1.000058680718968</v>
+      </c>
+      <c r="E26">
+        <v>0.9999853301774557</v>
+      </c>
+      <c r="F26">
+        <v>1.000011732378739</v>
+      </c>
+      <c r="G26">
+        <v>1.000058680718968</v>
+      </c>
+      <c r="H26">
+        <v>1.000038155266617</v>
+      </c>
+      <c r="I26">
+        <v>0.9999853301774557</v>
+      </c>
+      <c r="J26">
+        <v>0.9999782164981107</v>
+      </c>
+      <c r="K26">
+        <v>1.000012610808613</v>
+      </c>
+      <c r="L26">
+        <v>0.9999608861430194</v>
+      </c>
+      <c r="M26">
+        <v>0.9999608861430194</v>
+      </c>
+      <c r="N26">
+        <v>0.9999608861430194</v>
+      </c>
+      <c r="O26">
+        <v>0.9999853301774557</v>
+      </c>
+      <c r="P26">
+        <v>1.000022005448212</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999989704930345</v>
+      </c>
+      <c r="R26">
+        <v>1.000001632346481</v>
+      </c>
+      <c r="S26">
+        <v>1.000018873901679</v>
+      </c>
+      <c r="T26">
+        <v>1.000001632346481</v>
+      </c>
+      <c r="U26">
+        <v>1.000004376962014</v>
+      </c>
+      <c r="V26">
+        <v>0.9999956787982152</v>
+      </c>
+      <c r="W26">
+        <v>1.000003867771122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="D27">
+        <v>0.9997602878264014</v>
+      </c>
+      <c r="E27">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="F27">
+        <v>0.9999520481835525</v>
+      </c>
+      <c r="G27">
+        <v>0.9997602878264014</v>
+      </c>
+      <c r="H27">
+        <v>0.9998441278300477</v>
+      </c>
+      <c r="I27">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="J27">
+        <v>1.000088989405785</v>
+      </c>
+      <c r="K27">
+        <v>0.9999484716302068</v>
+      </c>
+      <c r="L27">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="M27">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="N27">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="O27">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="P27">
+        <v>0.9999101024301609</v>
+      </c>
+      <c r="Q27">
+        <v>1.000004194332064</v>
+      </c>
+      <c r="R27">
+        <v>0.9999933377922273</v>
+      </c>
+      <c r="S27">
+        <v>0.9999228921635095</v>
+      </c>
+      <c r="T27">
+        <v>0.9999933377922273</v>
+      </c>
+      <c r="U27">
+        <v>0.9999821212517221</v>
+      </c>
+      <c r="V27">
+        <v>1.00001765870465</v>
+      </c>
+      <c r="W27">
+        <v>0.9999841959325243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="D28">
+        <v>0.9997409072362732</v>
+      </c>
+      <c r="E28">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="F28">
+        <v>0.9999481766818127</v>
+      </c>
+      <c r="G28">
+        <v>0.9997409072362732</v>
+      </c>
+      <c r="H28">
+        <v>0.9998315450178668</v>
+      </c>
+      <c r="I28">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="J28">
+        <v>1.000096170020354</v>
+      </c>
+      <c r="K28">
+        <v>0.9999443308038072</v>
+      </c>
+      <c r="L28">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="M28">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="N28">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="O28">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="P28">
+        <v>0.9999028405653037</v>
+      </c>
+      <c r="Q28">
+        <v>1.000004552349071</v>
+      </c>
+      <c r="R28">
+        <v>0.9999928001749021</v>
+      </c>
+      <c r="S28">
+        <v>0.9999166706448048</v>
+      </c>
+      <c r="T28">
+        <v>0.9999928001749021</v>
+      </c>
+      <c r="U28">
+        <v>0.9999806828321284</v>
+      </c>
+      <c r="V28">
+        <v>1.000019090144523</v>
+      </c>
+      <c r="W28">
+        <v>0.9999829246178602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9996825317701024</v>
+      </c>
+      <c r="D29">
+        <v>1.000476182415749</v>
+      </c>
+      <c r="E29">
+        <v>0.9998809563147099</v>
+      </c>
+      <c r="F29">
+        <v>1.000095227772893</v>
+      </c>
+      <c r="G29">
+        <v>1.000476182415749</v>
+      </c>
+      <c r="H29">
+        <v>1.000309625580092</v>
+      </c>
+      <c r="I29">
+        <v>0.9998809563147099</v>
+      </c>
+      <c r="J29">
+        <v>0.999823245268298</v>
+      </c>
+      <c r="K29">
+        <v>1.000102319457922</v>
+      </c>
+      <c r="L29">
+        <v>0.9996825317701024</v>
+      </c>
+      <c r="M29">
+        <v>0.9996825317701024</v>
+      </c>
+      <c r="N29">
+        <v>0.9996825317701024</v>
+      </c>
+      <c r="O29">
+        <v>0.9998809563147099</v>
+      </c>
+      <c r="P29">
+        <v>1.00017856936523</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999916378863158</v>
+      </c>
+      <c r="R29">
+        <v>1.000013223500187</v>
+      </c>
+      <c r="S29">
+        <v>1.00015315272946</v>
+      </c>
+      <c r="T29">
+        <v>1.000013223500187</v>
+      </c>
+      <c r="U29">
+        <v>1.000035497489621</v>
+      </c>
+      <c r="V29">
+        <v>0.9999649043457172</v>
+      </c>
+      <c r="W29">
+        <v>1.00003138061181</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000592449214823</v>
+        <v>1.000368325129088</v>
       </c>
       <c r="D4">
-        <v>0.9991113251771403</v>
+        <v>0.9994475122671174</v>
       </c>
       <c r="E4">
-        <v>1.000222169453412</v>
+        <v>1.00013812316069</v>
       </c>
       <c r="F4">
-        <v>0.9998222657641569</v>
+        <v>0.9998895027303112</v>
       </c>
       <c r="G4">
-        <v>0.9991113251771403</v>
+        <v>0.9994475122671174</v>
       </c>
       <c r="H4">
-        <v>0.9994221804493494</v>
+        <v>0.9996407712711579</v>
       </c>
       <c r="I4">
-        <v>1.000222169453412</v>
+        <v>1.00013812316069</v>
       </c>
       <c r="J4">
-        <v>1.000329867488231</v>
+        <v>1.000205077294853</v>
       </c>
       <c r="K4">
-        <v>0.9998090457806069</v>
+        <v>0.9998812846822938</v>
       </c>
       <c r="L4">
-        <v>1.000592449214823</v>
+        <v>1.000368325129088</v>
       </c>
       <c r="M4">
-        <v>1.000592449214823</v>
+        <v>1.000368325129088</v>
       </c>
       <c r="N4">
-        <v>1.000592449214823</v>
+        <v>1.000368325129088</v>
       </c>
       <c r="O4">
-        <v>1.000222169453412</v>
+        <v>1.00013812316069</v>
       </c>
       <c r="P4">
-        <v>0.999666747315276</v>
+        <v>0.9997928177139036</v>
       </c>
       <c r="Q4">
-        <v>1.000015607617009</v>
+        <v>1.000009703921492</v>
       </c>
       <c r="R4">
-        <v>0.9999753146151251</v>
+        <v>0.999984653518965</v>
       </c>
       <c r="S4">
-        <v>0.9997141801370529</v>
+        <v>0.999822306703367</v>
       </c>
       <c r="T4">
-        <v>0.9999753146151251</v>
+        <v>0.999984653518965</v>
       </c>
       <c r="U4">
-        <v>0.9999337474064955</v>
+        <v>0.9999588113097972</v>
       </c>
       <c r="V4">
-        <v>1.000065487768161</v>
+        <v>1.000040714073655</v>
       </c>
       <c r="W4">
-        <v>0.9999414340976414</v>
+        <v>0.9999635899620252</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00047239394092</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="D5">
-        <v>0.9992914085806945</v>
+        <v>0.9977202967721921</v>
       </c>
       <c r="E5">
-        <v>1.000177149682999</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="F5">
-        <v>0.9998582821829984</v>
+        <v>0.999544061183528</v>
       </c>
       <c r="G5">
-        <v>0.9992914085806945</v>
+        <v>0.9977202967721921</v>
       </c>
       <c r="H5">
-        <v>0.9995392715561964</v>
+        <v>0.9985177267898827</v>
       </c>
       <c r="I5">
-        <v>1.000177149682999</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="J5">
-        <v>1.000263021188762</v>
+        <v>1.000846213706286</v>
       </c>
       <c r="K5">
-        <v>0.9998477415994205</v>
+        <v>0.9995101443012864</v>
       </c>
       <c r="L5">
-        <v>1.00047239394092</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="M5">
-        <v>1.00047239394092</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="N5">
-        <v>1.00047239394092</v>
+        <v>1.001519806697356</v>
       </c>
       <c r="O5">
-        <v>1.000177149682999</v>
+        <v>1.000569928331517</v>
       </c>
       <c r="P5">
-        <v>0.9997342791318469</v>
+        <v>0.9991451125518543</v>
       </c>
       <c r="Q5">
-        <v>1.00001244564121</v>
+        <v>1.000040036316401</v>
       </c>
       <c r="R5">
-        <v>0.9999803174015378</v>
+        <v>0.9999366772670216</v>
       </c>
       <c r="S5">
-        <v>0.9997720999543714</v>
+        <v>0.9992667898016651</v>
       </c>
       <c r="T5">
-        <v>0.9999803174015378</v>
+        <v>0.9999366772670216</v>
       </c>
       <c r="U5">
-        <v>0.9999471734510085</v>
+        <v>0.9998300440255878</v>
       </c>
       <c r="V5">
-        <v>1.000052217548991</v>
+        <v>1.000167996559941</v>
       </c>
       <c r="W5">
-        <v>0.9999533023018736</v>
+        <v>0.9998497632641956</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001529218738082</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="D6">
-        <v>0.9977061614662246</v>
+        <v>0.9991113251771403</v>
       </c>
       <c r="E6">
-        <v>1.000573464118299</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="F6">
-        <v>0.9995412344418864</v>
+        <v>0.9998222657641569</v>
       </c>
       <c r="G6">
-        <v>0.9977061614662246</v>
+        <v>0.9991113251771403</v>
       </c>
       <c r="H6">
-        <v>0.9985085332582859</v>
+        <v>0.9994221804493494</v>
       </c>
       <c r="I6">
-        <v>1.000573464118299</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="J6">
-        <v>1.000851441904179</v>
+        <v>1.000329867488231</v>
       </c>
       <c r="K6">
-        <v>0.9995071070939413</v>
+        <v>0.9998090457806069</v>
       </c>
       <c r="L6">
-        <v>1.001529218738082</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="M6">
-        <v>1.001529218738082</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="N6">
-        <v>1.001529218738082</v>
+        <v>1.000592449214823</v>
       </c>
       <c r="O6">
-        <v>1.000573464118299</v>
+        <v>1.000222169453412</v>
       </c>
       <c r="P6">
-        <v>0.9991398127922619</v>
+        <v>0.999666747315276</v>
       </c>
       <c r="Q6">
-        <v>1.00004028560612</v>
+        <v>1.000015607617009</v>
       </c>
       <c r="R6">
-        <v>0.9999362814408684</v>
+        <v>0.9999753146151251</v>
       </c>
       <c r="S6">
-        <v>0.9992622442261551</v>
+        <v>0.9997141801370529</v>
       </c>
       <c r="T6">
-        <v>0.9999362814408684</v>
+        <v>0.9999753146151251</v>
       </c>
       <c r="U6">
-        <v>0.9998289878541367</v>
+        <v>0.9999337474064955</v>
       </c>
       <c r="V6">
-        <v>1.000169034030926</v>
+        <v>1.000065487768161</v>
       </c>
       <c r="W6">
-        <v>0.9998488281423996</v>
+        <v>0.9999414340976414</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000052391116611</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="D7">
-        <v>0.999921413916347</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="E7">
-        <v>1.000019647921593</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="F7">
-        <v>0.9999842831611406</v>
+        <v>0.9998582821829984</v>
       </c>
       <c r="G7">
-        <v>0.999921413916347</v>
+        <v>0.9992914085806945</v>
       </c>
       <c r="H7">
-        <v>0.9999489050529794</v>
+        <v>0.9995392715561964</v>
       </c>
       <c r="I7">
-        <v>1.000019647921593</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="J7">
-        <v>1.00002916962818</v>
+        <v>1.000263021188762</v>
       </c>
       <c r="K7">
-        <v>0.9999831154099968</v>
+        <v>0.9998477415994205</v>
       </c>
       <c r="L7">
-        <v>1.000052391116611</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="M7">
-        <v>1.000052391116611</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="N7">
-        <v>1.000052391116611</v>
+        <v>1.00047239394092</v>
       </c>
       <c r="O7">
-        <v>1.000019647921593</v>
+        <v>1.000177149682999</v>
       </c>
       <c r="P7">
-        <v>0.9999705309189701</v>
+        <v>0.9997342791318469</v>
       </c>
       <c r="Q7">
-        <v>1.000001381665795</v>
+        <v>1.00001244564121</v>
       </c>
       <c r="R7">
-        <v>0.9999978176515171</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="S7">
-        <v>0.9999747257493125</v>
+        <v>0.9997720999543714</v>
       </c>
       <c r="T7">
-        <v>0.9999978176515171</v>
+        <v>0.9999803174015378</v>
       </c>
       <c r="U7">
-        <v>0.999994142091137</v>
+        <v>0.9999471734510085</v>
       </c>
       <c r="V7">
-        <v>1.000005791896232</v>
+        <v>1.000052217548991</v>
       </c>
       <c r="W7">
-        <v>0.9999948217660553</v>
+        <v>0.9999533023018736</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000381009924</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="D8">
-        <v>0.9999942839561042</v>
+        <v>0.9977061614662246</v>
       </c>
       <c r="E8">
-        <v>1.000001429719018</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="F8">
-        <v>0.9999988572728581</v>
+        <v>0.9995412344418864</v>
       </c>
       <c r="G8">
-        <v>0.9999942839561042</v>
+        <v>0.9977061614662246</v>
       </c>
       <c r="H8">
-        <v>0.9999962857943048</v>
+        <v>0.9985085332582859</v>
       </c>
       <c r="I8">
-        <v>1.000001429719018</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="J8">
-        <v>1.00000212139633</v>
+        <v>1.000851441904179</v>
       </c>
       <c r="K8">
-        <v>0.9999987734993321</v>
+        <v>0.9995071070939413</v>
       </c>
       <c r="L8">
-        <v>1.00000381009924</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="M8">
-        <v>1.00000381009924</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="N8">
-        <v>1.00000381009924</v>
+        <v>1.001529218738082</v>
       </c>
       <c r="O8">
-        <v>1.000001429719018</v>
+        <v>1.000573464118299</v>
       </c>
       <c r="P8">
-        <v>0.9999978568375609</v>
+        <v>0.9991398127922619</v>
       </c>
       <c r="Q8">
-        <v>1.000000101609175</v>
+        <v>1.00004028560612</v>
       </c>
       <c r="R8">
-        <v>0.9999998412581205</v>
+        <v>0.9999362814408684</v>
       </c>
       <c r="S8">
-        <v>0.9999981623914845</v>
+        <v>0.9992622442261551</v>
       </c>
       <c r="T8">
-        <v>0.9999998412581205</v>
+        <v>0.9999362814408684</v>
       </c>
       <c r="U8">
-        <v>0.9999995743184233</v>
+        <v>0.9998289878541367</v>
       </c>
       <c r="V8">
-        <v>1.000000421474587</v>
+        <v>1.000169034030926</v>
       </c>
       <c r="W8">
-        <v>0.9999996239320255</v>
+        <v>0.9998488281423996</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000084104699112</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="D9">
-        <v>0.9998738430402672</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="E9">
-        <v>1.00003154180094</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="F9">
-        <v>0.999974770014075</v>
+        <v>0.9999842831611406</v>
       </c>
       <c r="G9">
-        <v>0.9998738430402672</v>
+        <v>0.999921413916347</v>
       </c>
       <c r="H9">
-        <v>0.9999179742579268</v>
+        <v>0.9999489050529794</v>
       </c>
       <c r="I9">
-        <v>1.00003154180094</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="J9">
-        <v>1.000046828368588</v>
+        <v>1.00002916962818</v>
       </c>
       <c r="K9">
-        <v>0.9999728937080901</v>
+        <v>0.9999831154099968</v>
       </c>
       <c r="L9">
-        <v>1.000084104699112</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="M9">
-        <v>1.000084104699112</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="N9">
-        <v>1.000084104699112</v>
+        <v>1.000052391116611</v>
       </c>
       <c r="O9">
-        <v>1.00003154180094</v>
+        <v>1.000019647921593</v>
       </c>
       <c r="P9">
-        <v>0.9999526924206038</v>
+        <v>0.9999705309189701</v>
       </c>
       <c r="Q9">
-        <v>1.000002217754515</v>
+        <v>1.000001381665795</v>
       </c>
       <c r="R9">
-        <v>0.9999964965134397</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="S9">
-        <v>0.9999594261830992</v>
+        <v>0.9999747257493125</v>
       </c>
       <c r="T9">
-        <v>0.9999964965134397</v>
+        <v>0.9999978176515171</v>
       </c>
       <c r="U9">
-        <v>0.9999905958121023</v>
+        <v>0.999994142091137</v>
       </c>
       <c r="V9">
-        <v>1.000009297589504</v>
+        <v>1.000005791896232</v>
       </c>
       <c r="W9">
-        <v>0.9999916872112424</v>
+        <v>0.9999948217660553</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001551936496884</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="D10">
-        <v>0.9976720846732267</v>
+        <v>0.9999942839561042</v>
       </c>
       <c r="E10">
-        <v>1.000581983082369</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="F10">
-        <v>0.9995344188335389</v>
+        <v>0.9999988572728581</v>
       </c>
       <c r="G10">
-        <v>0.9976720846732267</v>
+        <v>0.9999942839561042</v>
       </c>
       <c r="H10">
-        <v>0.9984863764635588</v>
+        <v>0.9999962857943048</v>
       </c>
       <c r="I10">
-        <v>1.000581983082369</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="J10">
-        <v>1.000864090724203</v>
+        <v>1.00000212139633</v>
       </c>
       <c r="K10">
-        <v>0.9994997847790779</v>
+        <v>0.9999987734993321</v>
       </c>
       <c r="L10">
-        <v>1.001551936496884</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="M10">
-        <v>1.001551936496884</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="N10">
-        <v>1.001551936496884</v>
+        <v>1.00000381009924</v>
       </c>
       <c r="O10">
-        <v>1.000581983082369</v>
+        <v>1.000001429719018</v>
       </c>
       <c r="P10">
-        <v>0.999127033877798</v>
+        <v>0.9999978568375609</v>
       </c>
       <c r="Q10">
-        <v>1.000040883930724</v>
+        <v>1.000000101609175</v>
       </c>
       <c r="R10">
-        <v>0.9999353347508265</v>
+        <v>0.9999998412581205</v>
       </c>
       <c r="S10">
-        <v>0.9992512841782246</v>
+        <v>0.9999981623914845</v>
       </c>
       <c r="T10">
-        <v>0.9999353347508265</v>
+        <v>0.9999998412581205</v>
       </c>
       <c r="U10">
-        <v>0.9998264472578894</v>
+        <v>0.9999995743184233</v>
       </c>
       <c r="V10">
-        <v>1.000171545105688</v>
+        <v>1.000000421474587</v>
       </c>
       <c r="W10">
-        <v>0.9998465822669036</v>
+        <v>0.9999996239320255</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000301312884267</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="D11">
-        <v>0.9995480303239349</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="E11">
-        <v>1.000112993911815</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="F11">
-        <v>0.9999096074610596</v>
+        <v>0.999974770014075</v>
       </c>
       <c r="G11">
-        <v>0.9995480303239349</v>
+        <v>0.9998738430402672</v>
       </c>
       <c r="H11">
-        <v>0.9997061278021158</v>
+        <v>0.9999179742579268</v>
       </c>
       <c r="I11">
-        <v>1.000112993911815</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="J11">
-        <v>1.000167767357299</v>
+        <v>1.000046828368588</v>
       </c>
       <c r="K11">
-        <v>0.9999028833104653</v>
+        <v>0.9999728937080901</v>
       </c>
       <c r="L11">
-        <v>1.000301312884267</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="M11">
-        <v>1.000301312884267</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="N11">
-        <v>1.000301312884267</v>
+        <v>1.000084104699112</v>
       </c>
       <c r="O11">
-        <v>1.000112993911815</v>
+        <v>1.00003154180094</v>
       </c>
       <c r="P11">
-        <v>0.9998305121178748</v>
+        <v>0.9999526924206038</v>
       </c>
       <c r="Q11">
-        <v>1.00000793861114</v>
+        <v>1.000002217754515</v>
       </c>
       <c r="R11">
-        <v>0.9999874457066724</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="S11">
-        <v>0.9998546358487382</v>
+        <v>0.9999594261830992</v>
       </c>
       <c r="T11">
-        <v>0.9999874457066724</v>
+        <v>0.9999964965134397</v>
       </c>
       <c r="U11">
-        <v>0.9999663051076206</v>
+        <v>0.9999905958121023</v>
       </c>
       <c r="V11">
-        <v>1.00003330666295</v>
+        <v>1.000009297589504</v>
       </c>
       <c r="W11">
-        <v>0.9999702146203464</v>
+        <v>0.9999916872112424</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000471754999998</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="D12">
-        <v>0.9992923655894741</v>
+        <v>0.9976720846732267</v>
       </c>
       <c r="E12">
-        <v>1.000176910105263</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="F12">
-        <v>0.9998584732421052</v>
+        <v>0.9995344188335389</v>
       </c>
       <c r="G12">
-        <v>0.9992923655894741</v>
+        <v>0.9976720846732267</v>
       </c>
       <c r="H12">
-        <v>0.9995398946947365</v>
+        <v>0.9984863764635588</v>
       </c>
       <c r="I12">
-        <v>1.000176910105263</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="J12">
-        <v>1.000262665168423</v>
+        <v>1.000864090724203</v>
       </c>
       <c r="K12">
-        <v>0.999847947200002</v>
+        <v>0.9994997847790779</v>
       </c>
       <c r="L12">
-        <v>1.000471754999998</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="M12">
-        <v>1.000471754999998</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="N12">
-        <v>1.000471754999998</v>
+        <v>1.001551936496884</v>
       </c>
       <c r="O12">
-        <v>1.000176910105263</v>
+        <v>1.000581983082369</v>
       </c>
       <c r="P12">
-        <v>0.9997346378473685</v>
+        <v>0.999127033877798</v>
       </c>
       <c r="Q12">
-        <v>1.000012428652632</v>
+        <v>1.000040883930724</v>
       </c>
       <c r="R12">
-        <v>0.9999803435649115</v>
+        <v>0.9999353347508265</v>
       </c>
       <c r="S12">
-        <v>0.9997724076315797</v>
+        <v>0.9992512841782246</v>
       </c>
       <c r="T12">
-        <v>0.9999803435649115</v>
+        <v>0.9999353347508265</v>
       </c>
       <c r="U12">
-        <v>0.9999472444736841</v>
+        <v>0.9998264472578894</v>
       </c>
       <c r="V12">
-        <v>1.000052146578947</v>
+        <v>1.000171545105688</v>
       </c>
       <c r="W12">
-        <v>0.999953365138158</v>
+        <v>0.9998465822669036</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996947719080925</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="D13">
-        <v>1.000457838205996</v>
+        <v>0.9995480303239349</v>
       </c>
       <c r="E13">
-        <v>0.9998855396919858</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="F13">
-        <v>1.000091567955177</v>
+        <v>0.9999096074610596</v>
       </c>
       <c r="G13">
-        <v>1.000457838205996</v>
+        <v>0.9995480303239349</v>
       </c>
       <c r="H13">
-        <v>1.000297694072916</v>
+        <v>0.9997061278021158</v>
       </c>
       <c r="I13">
-        <v>0.9998855396919858</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="J13">
-        <v>0.9998300536928426</v>
+        <v>1.000167767357299</v>
       </c>
       <c r="K13">
-        <v>1.00009838075011</v>
+        <v>0.9999028833104653</v>
       </c>
       <c r="L13">
-        <v>0.9996947719080925</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="M13">
-        <v>0.9996947719080925</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="N13">
-        <v>0.9996947719080925</v>
+        <v>1.000301312884267</v>
       </c>
       <c r="O13">
-        <v>0.9998855396919858</v>
+        <v>1.000112993911815</v>
       </c>
       <c r="P13">
-        <v>1.000171688948991</v>
+        <v>0.9998305121178748</v>
       </c>
       <c r="Q13">
-        <v>0.9999919602210481</v>
+        <v>1.00000793861114</v>
       </c>
       <c r="R13">
-        <v>1.000012716602025</v>
+        <v>0.9999874457066724</v>
       </c>
       <c r="S13">
-        <v>1.000147252882698</v>
+        <v>0.9998546358487382</v>
       </c>
       <c r="T13">
-        <v>1.000012716602025</v>
+        <v>0.9999874457066724</v>
       </c>
       <c r="U13">
-        <v>1.000034132639046</v>
+        <v>0.9999663051076206</v>
       </c>
       <c r="V13">
-        <v>0.9999662604928556</v>
+        <v>1.00003330666295</v>
       </c>
       <c r="W13">
-        <v>1.000030173246138</v>
+        <v>0.9999702146203464</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0026813</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="D14">
-        <v>0.9959780300000018</v>
+        <v>0.9992923655894741</v>
       </c>
       <c r="E14">
-        <v>1.0010055</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="F14">
-        <v>0.9991956100000006</v>
+        <v>0.9998584732421052</v>
       </c>
       <c r="G14">
-        <v>0.9959780300000018</v>
+        <v>0.9992923655894741</v>
       </c>
       <c r="H14">
-        <v>0.99738489</v>
+        <v>0.9995398946947365</v>
       </c>
       <c r="I14">
-        <v>1.0010055</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="J14">
-        <v>1.001492900000001</v>
+        <v>1.000262665168423</v>
       </c>
       <c r="K14">
-        <v>0.9991357700000003</v>
+        <v>0.999847947200002</v>
       </c>
       <c r="L14">
-        <v>1.0026813</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="M14">
-        <v>1.0026813</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="N14">
-        <v>1.0026813</v>
+        <v>1.000471754999998</v>
       </c>
       <c r="O14">
-        <v>1.0010055</v>
+        <v>1.000176910105263</v>
       </c>
       <c r="P14">
-        <v>0.9984917650000009</v>
+        <v>0.9997346378473685</v>
       </c>
       <c r="Q14">
-        <v>1.000070635</v>
+        <v>1.000012428652632</v>
       </c>
       <c r="R14">
-        <v>0.9998882766666674</v>
+        <v>0.9999803435649115</v>
       </c>
       <c r="S14">
-        <v>0.998706433333334</v>
+        <v>0.9997724076315797</v>
       </c>
       <c r="T14">
-        <v>0.9998882766666674</v>
+        <v>0.9999803435649115</v>
       </c>
       <c r="U14">
-        <v>0.9997001500000007</v>
+        <v>0.9999472444736841</v>
       </c>
       <c r="V14">
-        <v>1.00029638</v>
+        <v>1.000052146578947</v>
       </c>
       <c r="W14">
-        <v>0.9997349375000004</v>
+        <v>0.999953365138158</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0043208</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="D15">
-        <v>0.99351878</v>
+        <v>1.000457838205996</v>
       </c>
       <c r="E15">
-        <v>1.0016203</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="F15">
-        <v>0.9987037600000001</v>
+        <v>1.000091567955177</v>
       </c>
       <c r="G15">
-        <v>0.99351878</v>
+        <v>1.000457838205996</v>
       </c>
       <c r="H15">
-        <v>0.99578587</v>
+        <v>1.000297694072916</v>
       </c>
       <c r="I15">
-        <v>1.0016203</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="J15">
-        <v>1.0024058</v>
+        <v>0.9998300536928426</v>
       </c>
       <c r="K15">
-        <v>0.99860734</v>
+        <v>1.00009838075011</v>
       </c>
       <c r="L15">
-        <v>1.0043208</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="M15">
-        <v>1.0043208</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="N15">
-        <v>1.0043208</v>
+        <v>0.9996947719080925</v>
       </c>
       <c r="O15">
-        <v>1.0016203</v>
+        <v>0.9998855396919858</v>
       </c>
       <c r="P15">
-        <v>0.99756954</v>
+        <v>1.000171688948991</v>
       </c>
       <c r="Q15">
-        <v>1.00011382</v>
+        <v>0.9999919602210481</v>
       </c>
       <c r="R15">
-        <v>0.99981996</v>
+        <v>1.000012716602025</v>
       </c>
       <c r="S15">
-        <v>0.9979154733333333</v>
+        <v>1.000147252882698</v>
       </c>
       <c r="T15">
-        <v>0.99981996</v>
+        <v>1.000012716602025</v>
       </c>
       <c r="U15">
-        <v>0.999516805</v>
+        <v>1.000034132639046</v>
       </c>
       <c r="V15">
-        <v>1.000477604</v>
+        <v>0.9999662604928556</v>
       </c>
       <c r="W15">
-        <v>0.9995728687500001</v>
+        <v>1.000030173246138</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0041638</v>
+        <v>1.0026813</v>
       </c>
       <c r="D16">
-        <v>0.99375433</v>
+        <v>0.9959780300000018</v>
       </c>
       <c r="E16">
-        <v>1.0015614</v>
+        <v>1.0010055</v>
       </c>
       <c r="F16">
-        <v>0.99875087</v>
+        <v>0.9991956100000006</v>
       </c>
       <c r="G16">
-        <v>0.99375433</v>
+        <v>0.9959780300000018</v>
       </c>
       <c r="H16">
-        <v>0.9959390299999999</v>
+        <v>0.99738489</v>
       </c>
       <c r="I16">
-        <v>1.0015614</v>
+        <v>1.0010055</v>
       </c>
       <c r="J16">
-        <v>1.0023183</v>
+        <v>1.001492900000001</v>
       </c>
       <c r="K16">
-        <v>0.99865795</v>
+        <v>0.9991357700000003</v>
       </c>
       <c r="L16">
-        <v>1.0041638</v>
+        <v>1.0026813</v>
       </c>
       <c r="M16">
-        <v>1.0041638</v>
+        <v>1.0026813</v>
       </c>
       <c r="N16">
-        <v>1.0041638</v>
+        <v>1.0026813</v>
       </c>
       <c r="O16">
-        <v>1.0015614</v>
+        <v>1.0010055</v>
       </c>
       <c r="P16">
-        <v>0.997657865</v>
+        <v>0.9984917650000009</v>
       </c>
       <c r="Q16">
-        <v>1.000109675</v>
+        <v>1.000070635</v>
       </c>
       <c r="R16">
-        <v>0.99982651</v>
+        <v>0.9998882766666674</v>
       </c>
       <c r="S16">
-        <v>0.9979912266666666</v>
+        <v>0.998706433333334</v>
       </c>
       <c r="T16">
-        <v>0.99982651</v>
+        <v>0.9998882766666674</v>
       </c>
       <c r="U16">
-        <v>0.99953437</v>
+        <v>0.9997001500000007</v>
       </c>
       <c r="V16">
-        <v>1.000460256</v>
+        <v>1.00029638</v>
       </c>
       <c r="W16">
-        <v>0.999588385</v>
+        <v>0.9997349375000004</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0010898</v>
+        <v>1.0043208</v>
       </c>
       <c r="D17">
-        <v>0.9983653</v>
+        <v>0.99351878</v>
       </c>
       <c r="E17">
-        <v>1.0004087</v>
+        <v>1.0016203</v>
       </c>
       <c r="F17">
-        <v>0.9996730599999999</v>
+        <v>0.9987037600000001</v>
       </c>
       <c r="G17">
-        <v>0.9983653</v>
+        <v>0.99351878</v>
       </c>
       <c r="H17">
-        <v>0.99893711</v>
+        <v>0.99578587</v>
       </c>
       <c r="I17">
-        <v>1.0004087</v>
+        <v>1.0016203</v>
       </c>
       <c r="J17">
-        <v>1.0006068</v>
+        <v>1.0024058</v>
       </c>
       <c r="K17">
-        <v>0.99964874</v>
+        <v>0.99860734</v>
       </c>
       <c r="L17">
-        <v>1.0010898</v>
+        <v>1.0043208</v>
       </c>
       <c r="M17">
-        <v>1.0010898</v>
+        <v>1.0043208</v>
       </c>
       <c r="N17">
-        <v>1.0010898</v>
+        <v>1.0043208</v>
       </c>
       <c r="O17">
-        <v>1.0004087</v>
+        <v>1.0016203</v>
       </c>
       <c r="P17">
-        <v>0.999387</v>
+        <v>0.99756954</v>
       </c>
       <c r="Q17">
-        <v>1.00002872</v>
+        <v>1.00011382</v>
       </c>
       <c r="R17">
-        <v>0.9999546</v>
+        <v>0.99981996</v>
       </c>
       <c r="S17">
-        <v>0.9994742466666667</v>
+        <v>0.9979154733333333</v>
       </c>
       <c r="T17">
-        <v>0.9999546</v>
+        <v>0.99981996</v>
       </c>
       <c r="U17">
-        <v>0.999878135</v>
+        <v>0.999516805</v>
       </c>
       <c r="V17">
-        <v>1.000120468</v>
+        <v>1.000477604</v>
       </c>
       <c r="W17">
-        <v>0.99989227625</v>
+        <v>0.9995728687500001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001050907945205</v>
+        <v>1.0041638</v>
       </c>
       <c r="D18">
-        <v>0.9984236389041091</v>
+        <v>0.99375433</v>
       </c>
       <c r="E18">
-        <v>1.000394103287671</v>
+        <v>1.0015614</v>
       </c>
       <c r="F18">
-        <v>0.9996847317808217</v>
+        <v>0.99875087</v>
       </c>
       <c r="G18">
-        <v>0.9984236389041091</v>
+        <v>0.99375433</v>
       </c>
       <c r="H18">
-        <v>0.9989750382191785</v>
+        <v>0.9959390299999999</v>
       </c>
       <c r="I18">
-        <v>1.000394103287671</v>
+        <v>1.0015614</v>
       </c>
       <c r="J18">
-        <v>1.000585128219178</v>
+        <v>1.0023183</v>
       </c>
       <c r="K18">
-        <v>0.9996612816438358</v>
+        <v>0.99865795</v>
       </c>
       <c r="L18">
-        <v>1.001050907945205</v>
+        <v>1.0041638</v>
       </c>
       <c r="M18">
-        <v>1.001050907945205</v>
+        <v>1.0041638</v>
       </c>
       <c r="N18">
-        <v>1.001050907945205</v>
+        <v>1.0041638</v>
       </c>
       <c r="O18">
-        <v>1.000394103287671</v>
+        <v>1.0015614</v>
       </c>
       <c r="P18">
-        <v>0.9994088710958899</v>
+        <v>0.997657865</v>
       </c>
       <c r="Q18">
-        <v>1.000027692465753</v>
+        <v>1.000109675</v>
       </c>
       <c r="R18">
-        <v>0.9999562167123285</v>
+        <v>0.99982651</v>
       </c>
       <c r="S18">
-        <v>0.9994930079452052</v>
+        <v>0.9979912266666666</v>
       </c>
       <c r="T18">
-        <v>0.9999562167123285</v>
+        <v>0.99982651</v>
       </c>
       <c r="U18">
-        <v>0.9998824829452053</v>
+        <v>0.99953437</v>
       </c>
       <c r="V18">
-        <v>1.000116167945205</v>
+        <v>1.000460256</v>
       </c>
       <c r="W18">
-        <v>0.9998961166609588</v>
+        <v>0.999588385</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001715162631579</v>
+        <v>1.0010898</v>
       </c>
       <c r="D19">
-        <v>0.9974272557894737</v>
+        <v>0.9983653</v>
       </c>
       <c r="E19">
-        <v>1.000643181578947</v>
+        <v>1.0004087</v>
       </c>
       <c r="F19">
-        <v>0.9994854515789473</v>
+        <v>0.9996730599999999</v>
       </c>
       <c r="G19">
-        <v>0.9974272557894737</v>
+        <v>0.9983653</v>
       </c>
       <c r="H19">
-        <v>0.9983271899999999</v>
+        <v>0.99893711</v>
       </c>
       <c r="I19">
-        <v>1.000643181578947</v>
+        <v>1.0004087</v>
       </c>
       <c r="J19">
-        <v>1.000954982105263</v>
+        <v>1.0006068</v>
       </c>
       <c r="K19">
-        <v>0.99944718</v>
+        <v>0.99964874</v>
       </c>
       <c r="L19">
-        <v>1.001715162631579</v>
+        <v>1.0010898</v>
       </c>
       <c r="M19">
-        <v>1.001715162631579</v>
+        <v>1.0010898</v>
       </c>
       <c r="N19">
-        <v>1.001715162631579</v>
+        <v>1.0010898</v>
       </c>
       <c r="O19">
-        <v>1.000643181578947</v>
+        <v>1.0004087</v>
       </c>
       <c r="P19">
-        <v>0.9990352186842105</v>
+        <v>0.999387</v>
       </c>
       <c r="Q19">
-        <v>1.000045180789474</v>
+        <v>1.00002872</v>
       </c>
       <c r="R19">
-        <v>0.9999285333333333</v>
+        <v>0.9999546</v>
       </c>
       <c r="S19">
-        <v>0.999172539122807</v>
+        <v>0.9994742466666667</v>
       </c>
       <c r="T19">
-        <v>0.9999285333333333</v>
+        <v>0.9999546</v>
       </c>
       <c r="U19">
-        <v>0.999808195</v>
+        <v>0.999878135</v>
       </c>
       <c r="V19">
-        <v>1.000189588526316</v>
+        <v>1.000120468</v>
       </c>
       <c r="W19">
-        <v>0.9998304481578947</v>
+        <v>0.99989227625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001663507894737</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="D20">
-        <v>0.9975047431578947</v>
+        <v>0.9984236389041091</v>
       </c>
       <c r="E20">
-        <v>1.000623816842105</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="F20">
-        <v>0.9995009505263158</v>
+        <v>0.9996847317808217</v>
       </c>
       <c r="G20">
-        <v>0.9975047431578947</v>
+        <v>0.9984236389041091</v>
       </c>
       <c r="H20">
-        <v>0.9983775721052629</v>
+        <v>0.9989750382191785</v>
       </c>
       <c r="I20">
-        <v>1.000623816842105</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="J20">
-        <v>1.00092622368421</v>
+        <v>1.000585128219178</v>
       </c>
       <c r="K20">
-        <v>0.9994638268421054</v>
+        <v>0.9996612816438358</v>
       </c>
       <c r="L20">
-        <v>1.001663507894737</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="M20">
-        <v>1.001663507894737</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="N20">
-        <v>1.001663507894737</v>
+        <v>1.001050907945205</v>
       </c>
       <c r="O20">
-        <v>1.000623816842105</v>
+        <v>1.000394103287671</v>
       </c>
       <c r="P20">
-        <v>0.99906428</v>
+        <v>0.9994088710958899</v>
       </c>
       <c r="Q20">
-        <v>1.000043821842105</v>
+        <v>1.000027692465753</v>
       </c>
       <c r="R20">
-        <v>0.9999306892982456</v>
+        <v>0.9999562167123285</v>
       </c>
       <c r="S20">
-        <v>0.9991974622807018</v>
+        <v>0.9994930079452052</v>
       </c>
       <c r="T20">
-        <v>0.9999306892982456</v>
+        <v>0.9999562167123285</v>
       </c>
       <c r="U20">
-        <v>0.9998139736842105</v>
+        <v>0.9998824829452053</v>
       </c>
       <c r="V20">
-        <v>1.000183880526316</v>
+        <v>1.000116167945205</v>
       </c>
       <c r="W20">
-        <v>0.999835557236842</v>
+        <v>0.9998961166609588</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999974633047395</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="D21">
-        <v>1.000003795180401</v>
+        <v>0.9974272557894737</v>
       </c>
       <c r="E21">
-        <v>0.9999990494506927</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="F21">
-        <v>1.000000760577882</v>
+        <v>0.9994854515789473</v>
       </c>
       <c r="G21">
-        <v>1.000003795180401</v>
+        <v>0.9974272557894737</v>
       </c>
       <c r="H21">
-        <v>1.000002475634174</v>
+        <v>0.9983271899999999</v>
       </c>
       <c r="I21">
-        <v>0.9999990494506927</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="J21">
-        <v>0.9999985817290312</v>
+        <v>1.000954982105263</v>
       </c>
       <c r="K21">
-        <v>1.000000829405617</v>
+        <v>0.99944718</v>
       </c>
       <c r="L21">
-        <v>0.9999974633047395</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="M21">
-        <v>0.9999974633047395</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="N21">
-        <v>0.9999974633047395</v>
+        <v>1.001715162631579</v>
       </c>
       <c r="O21">
-        <v>0.9999990494506927</v>
+        <v>1.000643181578947</v>
       </c>
       <c r="P21">
-        <v>1.000001422315547</v>
+        <v>0.9990352186842105</v>
       </c>
       <c r="Q21">
-        <v>0.9999999394281548</v>
+        <v>1.000045180789474</v>
       </c>
       <c r="R21">
-        <v>1.000000102645278</v>
+        <v>0.9999285333333333</v>
       </c>
       <c r="S21">
-        <v>1.000001224678903</v>
+        <v>0.999172539122807</v>
       </c>
       <c r="T21">
-        <v>1.000000102645278</v>
+        <v>0.9999285333333333</v>
       </c>
       <c r="U21">
-        <v>1.000000284335362</v>
+        <v>0.999808195</v>
       </c>
       <c r="V21">
-        <v>0.9999997201292377</v>
+        <v>1.000189588526316</v>
       </c>
       <c r="W21">
-        <v>1.000000250591654</v>
+        <v>0.9998304481578947</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000000664119448</v>
+        <v>1.001663507894737</v>
       </c>
       <c r="D22">
-        <v>0.9999990055467399</v>
+        <v>0.9975047431578947</v>
       </c>
       <c r="E22">
-        <v>1.000000246945577</v>
+        <v>1.000623816842105</v>
       </c>
       <c r="F22">
-        <v>0.9999997961638373</v>
+        <v>0.9995009505263158</v>
       </c>
       <c r="G22">
-        <v>0.9999990055467399</v>
+        <v>0.9975047431578947</v>
       </c>
       <c r="H22">
-        <v>0.999999352278692</v>
+        <v>0.9983775721052629</v>
       </c>
       <c r="I22">
-        <v>1.000000246945577</v>
+        <v>1.000623816842105</v>
       </c>
       <c r="J22">
-        <v>1.00000036595987</v>
+        <v>1.00092622368421</v>
       </c>
       <c r="K22">
-        <v>0.9999997910152201</v>
+        <v>0.9994638268421054</v>
       </c>
       <c r="L22">
-        <v>1.000000664119448</v>
+        <v>1.001663507894737</v>
       </c>
       <c r="M22">
-        <v>1.000000664119448</v>
+        <v>1.001663507894737</v>
       </c>
       <c r="N22">
-        <v>1.000000664119448</v>
+        <v>1.001663507894737</v>
       </c>
       <c r="O22">
-        <v>1.000000246945577</v>
+        <v>1.000623816842105</v>
       </c>
       <c r="P22">
-        <v>0.9999996262461586</v>
+        <v>0.99906428</v>
       </c>
       <c r="Q22">
-        <v>1.000000018980399</v>
+        <v>1.000043821842105</v>
       </c>
       <c r="R22">
-        <v>0.9999999722039217</v>
+        <v>0.9999306892982456</v>
       </c>
       <c r="S22">
-        <v>0.999999681169179</v>
+        <v>0.9991974622807018</v>
       </c>
       <c r="T22">
-        <v>0.9999999722039217</v>
+        <v>0.9999306892982456</v>
       </c>
       <c r="U22">
-        <v>0.9999999269067463</v>
+        <v>0.9998139736842105</v>
       </c>
       <c r="V22">
-        <v>1.000000074349287</v>
+        <v>1.000183880526316</v>
       </c>
       <c r="W22">
-        <v>0.9999999336218701</v>
+        <v>0.999835557236842</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9993741563426508</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="D23">
-        <v>1.000938762023138</v>
+        <v>1.000003795180401</v>
       </c>
       <c r="E23">
-        <v>0.9997653092945696</v>
+        <v>0.9999990494506927</v>
       </c>
       <c r="F23">
-        <v>1.000187750242171</v>
+        <v>1.000000760577882</v>
       </c>
       <c r="G23">
-        <v>1.000938762023138</v>
+        <v>1.000003795180401</v>
       </c>
       <c r="H23">
-        <v>1.000610391009779</v>
+        <v>1.000002475634174</v>
       </c>
       <c r="I23">
-        <v>0.9997653092945696</v>
+        <v>0.9999990494506927</v>
       </c>
       <c r="J23">
-        <v>0.9996515416410945</v>
+        <v>0.9999985817290312</v>
       </c>
       <c r="K23">
-        <v>1.000201720479163</v>
+        <v>1.000000829405617</v>
       </c>
       <c r="L23">
-        <v>0.9993741563426508</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="M23">
-        <v>0.9993741563426508</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="N23">
-        <v>0.9993741563426508</v>
+        <v>0.9999974633047395</v>
       </c>
       <c r="O23">
-        <v>0.9997653092945696</v>
+        <v>0.9999990494506927</v>
       </c>
       <c r="P23">
-        <v>1.000352035658854</v>
+        <v>1.000001422315547</v>
       </c>
       <c r="Q23">
-        <v>0.9999835148868663</v>
+        <v>0.9999999394281548</v>
       </c>
       <c r="R23">
-        <v>1.000026075886786</v>
+        <v>1.000000102645278</v>
       </c>
       <c r="S23">
-        <v>1.000301930598957</v>
+        <v>1.000001224678903</v>
       </c>
       <c r="T23">
-        <v>1.000026075886786</v>
+        <v>1.000000102645278</v>
       </c>
       <c r="U23">
-        <v>1.00006998703488</v>
+        <v>1.000000284335362</v>
       </c>
       <c r="V23">
-        <v>0.9999308208964344</v>
+        <v>0.9999997201292377</v>
       </c>
       <c r="W23">
-        <v>1.000061867540892</v>
+        <v>1.000000250591654</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9998377853168013</v>
+        <v>1.000000664119448</v>
       </c>
       <c r="D24">
-        <v>1.000243323193166</v>
+        <v>0.9999990055467399</v>
       </c>
       <c r="E24">
-        <v>0.9999391702538896</v>
+        <v>1.000000246945577</v>
       </c>
       <c r="F24">
-        <v>1.000048665987001</v>
+        <v>0.9999997961638373</v>
       </c>
       <c r="G24">
-        <v>1.000243323193166</v>
+        <v>0.9999990055467399</v>
       </c>
       <c r="H24">
-        <v>1.000158218555874</v>
+        <v>0.999999352278692</v>
       </c>
       <c r="I24">
-        <v>0.9999391702538896</v>
+        <v>1.000000246945577</v>
       </c>
       <c r="J24">
-        <v>0.9999096834577995</v>
+        <v>1.00000036595987</v>
       </c>
       <c r="K24">
-        <v>1.000052289871308</v>
+        <v>0.9999997910152201</v>
       </c>
       <c r="L24">
-        <v>0.9998377853168013</v>
+        <v>1.000000664119448</v>
       </c>
       <c r="M24">
-        <v>0.9998377853168013</v>
+        <v>1.000000664119448</v>
       </c>
       <c r="N24">
-        <v>0.9998377853168013</v>
+        <v>1.000000664119448</v>
       </c>
       <c r="O24">
-        <v>0.9999391702538896</v>
+        <v>1.000000246945577</v>
       </c>
       <c r="P24">
-        <v>1.000091246723528</v>
+        <v>0.9999996262461586</v>
       </c>
       <c r="Q24">
-        <v>0.9999957300625986</v>
+        <v>1.000000018980399</v>
       </c>
       <c r="R24">
-        <v>1.000006759587952</v>
+        <v>0.9999999722039217</v>
       </c>
       <c r="S24">
-        <v>1.000078261106121</v>
+        <v>0.999999681169179</v>
       </c>
       <c r="T24">
-        <v>1.000006759587952</v>
+        <v>0.9999999722039217</v>
       </c>
       <c r="U24">
-        <v>1.000018142158791</v>
+        <v>0.9999999269067463</v>
       </c>
       <c r="V24">
-        <v>0.999982070790393</v>
+        <v>1.000000074349287</v>
       </c>
       <c r="W24">
-        <v>1.000016038361216</v>
+        <v>0.9999999336218701</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9998487039272999</v>
+        <v>0.9993741563426508</v>
       </c>
       <c r="D25">
-        <v>1.000226936321122</v>
+        <v>1.000938762023138</v>
       </c>
       <c r="E25">
-        <v>0.999943265563492</v>
+        <v>0.9997653092945696</v>
       </c>
       <c r="F25">
-        <v>1.000045395924158</v>
+        <v>1.000187750242171</v>
       </c>
       <c r="G25">
-        <v>1.000226936321122</v>
+        <v>1.000938762023138</v>
       </c>
       <c r="H25">
-        <v>1.000147567502872</v>
+        <v>1.000610391009779</v>
       </c>
       <c r="I25">
-        <v>0.999943265563492</v>
+        <v>0.9997653092945696</v>
       </c>
       <c r="J25">
-        <v>0.9999157633476052</v>
+        <v>0.9996515416410945</v>
       </c>
       <c r="K25">
-        <v>1.000048770510624</v>
+        <v>1.000201720479163</v>
       </c>
       <c r="L25">
-        <v>0.9998487039272999</v>
+        <v>0.9993741563426508</v>
       </c>
       <c r="M25">
-        <v>0.9998487039272999</v>
+        <v>0.9993741563426508</v>
       </c>
       <c r="N25">
-        <v>0.9998487039272999</v>
+        <v>0.9993741563426508</v>
       </c>
       <c r="O25">
-        <v>0.999943265563492</v>
+        <v>0.9997653092945696</v>
       </c>
       <c r="P25">
-        <v>1.000085100942307</v>
+        <v>1.000352035658854</v>
       </c>
       <c r="Q25">
-        <v>0.9999960180370582</v>
+        <v>0.9999835148868663</v>
       </c>
       <c r="R25">
-        <v>1.000006301937305</v>
+        <v>1.000026075886786</v>
       </c>
       <c r="S25">
-        <v>1.000072990798413</v>
+        <v>1.000301930598957</v>
       </c>
       <c r="T25">
-        <v>1.000006301937305</v>
+        <v>1.000026075886786</v>
       </c>
       <c r="U25">
-        <v>1.000016919080635</v>
+        <v>1.00006998703488</v>
       </c>
       <c r="V25">
-        <v>0.9999832760499677</v>
+        <v>0.9999308208964344</v>
       </c>
       <c r="W25">
-        <v>1.000014958582583</v>
+        <v>1.000061867540892</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9999608861430194</v>
+        <v>0.9998377853168013</v>
       </c>
       <c r="D26">
-        <v>1.000058680718968</v>
+        <v>1.000243323193166</v>
       </c>
       <c r="E26">
-        <v>0.9999853301774557</v>
+        <v>0.9999391702538896</v>
       </c>
       <c r="F26">
-        <v>1.000011732378739</v>
+        <v>1.000048665987001</v>
       </c>
       <c r="G26">
-        <v>1.000058680718968</v>
+        <v>1.000243323193166</v>
       </c>
       <c r="H26">
-        <v>1.000038155266617</v>
+        <v>1.000158218555874</v>
       </c>
       <c r="I26">
-        <v>0.9999853301774557</v>
+        <v>0.9999391702538896</v>
       </c>
       <c r="J26">
-        <v>0.9999782164981107</v>
+        <v>0.9999096834577995</v>
       </c>
       <c r="K26">
-        <v>1.000012610808613</v>
+        <v>1.000052289871308</v>
       </c>
       <c r="L26">
-        <v>0.9999608861430194</v>
+        <v>0.9998377853168013</v>
       </c>
       <c r="M26">
-        <v>0.9999608861430194</v>
+        <v>0.9998377853168013</v>
       </c>
       <c r="N26">
-        <v>0.9999608861430194</v>
+        <v>0.9998377853168013</v>
       </c>
       <c r="O26">
-        <v>0.9999853301774557</v>
+        <v>0.9999391702538896</v>
       </c>
       <c r="P26">
-        <v>1.000022005448212</v>
+        <v>1.000091246723528</v>
       </c>
       <c r="Q26">
-        <v>0.9999989704930345</v>
+        <v>0.9999957300625986</v>
       </c>
       <c r="R26">
-        <v>1.000001632346481</v>
+        <v>1.000006759587952</v>
       </c>
       <c r="S26">
-        <v>1.000018873901679</v>
+        <v>1.000078261106121</v>
       </c>
       <c r="T26">
-        <v>1.000001632346481</v>
+        <v>1.000006759587952</v>
       </c>
       <c r="U26">
-        <v>1.000004376962014</v>
+        <v>1.000018142158791</v>
       </c>
       <c r="V26">
-        <v>0.9999956787982152</v>
+        <v>0.999982070790393</v>
       </c>
       <c r="W26">
-        <v>1.000003867771122</v>
+        <v>1.000016038361216</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.00015980851636</v>
+        <v>0.9998487039272999</v>
       </c>
       <c r="D27">
-        <v>0.9997602878264014</v>
+        <v>1.000226936321122</v>
       </c>
       <c r="E27">
-        <v>1.00005991703392</v>
+        <v>0.999943265563492</v>
       </c>
       <c r="F27">
-        <v>0.9999520481835525</v>
+        <v>1.000045395924158</v>
       </c>
       <c r="G27">
-        <v>0.9997602878264014</v>
+        <v>1.000226936321122</v>
       </c>
       <c r="H27">
-        <v>0.9998441278300477</v>
+        <v>1.000147567502872</v>
       </c>
       <c r="I27">
-        <v>1.00005991703392</v>
+        <v>0.999943265563492</v>
       </c>
       <c r="J27">
-        <v>1.000088989405785</v>
+        <v>0.9999157633476052</v>
       </c>
       <c r="K27">
-        <v>0.9999484716302068</v>
+        <v>1.000048770510624</v>
       </c>
       <c r="L27">
-        <v>1.00015980851636</v>
+        <v>0.9998487039272999</v>
       </c>
       <c r="M27">
-        <v>1.00015980851636</v>
+        <v>0.9998487039272999</v>
       </c>
       <c r="N27">
-        <v>1.00015980851636</v>
+        <v>0.9998487039272999</v>
       </c>
       <c r="O27">
-        <v>1.00005991703392</v>
+        <v>0.999943265563492</v>
       </c>
       <c r="P27">
-        <v>0.9999101024301609</v>
+        <v>1.000085100942307</v>
       </c>
       <c r="Q27">
-        <v>1.000004194332064</v>
+        <v>0.9999960180370582</v>
       </c>
       <c r="R27">
-        <v>0.9999933377922273</v>
+        <v>1.000006301937305</v>
       </c>
       <c r="S27">
-        <v>0.9999228921635095</v>
+        <v>1.000072990798413</v>
       </c>
       <c r="T27">
-        <v>0.9999933377922273</v>
+        <v>1.000006301937305</v>
       </c>
       <c r="U27">
-        <v>0.9999821212517221</v>
+        <v>1.000016919080635</v>
       </c>
       <c r="V27">
-        <v>1.00001765870465</v>
+        <v>0.9999832760499677</v>
       </c>
       <c r="W27">
-        <v>0.9999841959325243</v>
+        <v>1.000014958582583</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000172719394099</v>
+        <v>0.9999608861430194</v>
       </c>
       <c r="D28">
-        <v>0.9997409072362732</v>
+        <v>1.000058680718968</v>
       </c>
       <c r="E28">
-        <v>1.000064773894334</v>
+        <v>0.9999853301774557</v>
       </c>
       <c r="F28">
-        <v>0.9999481766818127</v>
+        <v>1.000011732378739</v>
       </c>
       <c r="G28">
-        <v>0.9997409072362732</v>
+        <v>1.000058680718968</v>
       </c>
       <c r="H28">
-        <v>0.9998315450178668</v>
+        <v>1.000038155266617</v>
       </c>
       <c r="I28">
-        <v>1.000064773894334</v>
+        <v>0.9999853301774557</v>
       </c>
       <c r="J28">
-        <v>1.000096170020354</v>
+        <v>0.9999782164981107</v>
       </c>
       <c r="K28">
-        <v>0.9999443308038072</v>
+        <v>1.000012610808613</v>
       </c>
       <c r="L28">
-        <v>1.000172719394099</v>
+        <v>0.9999608861430194</v>
       </c>
       <c r="M28">
-        <v>1.000172719394099</v>
+        <v>0.9999608861430194</v>
       </c>
       <c r="N28">
-        <v>1.000172719394099</v>
+        <v>0.9999608861430194</v>
       </c>
       <c r="O28">
-        <v>1.000064773894334</v>
+        <v>0.9999853301774557</v>
       </c>
       <c r="P28">
-        <v>0.9999028405653037</v>
+        <v>1.000022005448212</v>
       </c>
       <c r="Q28">
-        <v>1.000004552349071</v>
+        <v>0.9999989704930345</v>
       </c>
       <c r="R28">
-        <v>0.9999928001749021</v>
+        <v>1.000001632346481</v>
       </c>
       <c r="S28">
-        <v>0.9999166706448048</v>
+        <v>1.000018873901679</v>
       </c>
       <c r="T28">
-        <v>0.9999928001749021</v>
+        <v>1.000001632346481</v>
       </c>
       <c r="U28">
-        <v>0.9999806828321284</v>
+        <v>1.000004376962014</v>
       </c>
       <c r="V28">
-        <v>1.000019090144523</v>
+        <v>0.9999956787982152</v>
       </c>
       <c r="W28">
-        <v>0.9999829246178602</v>
+        <v>1.000003867771122</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="D29">
+        <v>0.9997602878264014</v>
+      </c>
+      <c r="E29">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="F29">
+        <v>0.9999520481835525</v>
+      </c>
+      <c r="G29">
+        <v>0.9997602878264014</v>
+      </c>
+      <c r="H29">
+        <v>0.9998441278300477</v>
+      </c>
+      <c r="I29">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="J29">
+        <v>1.000088989405785</v>
+      </c>
+      <c r="K29">
+        <v>0.9999484716302068</v>
+      </c>
+      <c r="L29">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="M29">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="N29">
+        <v>1.00015980851636</v>
+      </c>
+      <c r="O29">
+        <v>1.00005991703392</v>
+      </c>
+      <c r="P29">
+        <v>0.9999101024301609</v>
+      </c>
+      <c r="Q29">
+        <v>1.000004194332064</v>
+      </c>
+      <c r="R29">
+        <v>0.9999933377922273</v>
+      </c>
+      <c r="S29">
+        <v>0.9999228921635095</v>
+      </c>
+      <c r="T29">
+        <v>0.9999933377922273</v>
+      </c>
+      <c r="U29">
+        <v>0.9999821212517221</v>
+      </c>
+      <c r="V29">
+        <v>1.00001765870465</v>
+      </c>
+      <c r="W29">
+        <v>0.9999841959325243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="D30">
+        <v>0.9997409072362732</v>
+      </c>
+      <c r="E30">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="F30">
+        <v>0.9999481766818127</v>
+      </c>
+      <c r="G30">
+        <v>0.9997409072362732</v>
+      </c>
+      <c r="H30">
+        <v>0.9998315450178668</v>
+      </c>
+      <c r="I30">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="J30">
+        <v>1.000096170020354</v>
+      </c>
+      <c r="K30">
+        <v>0.9999443308038072</v>
+      </c>
+      <c r="L30">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="M30">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="N30">
+        <v>1.000172719394099</v>
+      </c>
+      <c r="O30">
+        <v>1.000064773894334</v>
+      </c>
+      <c r="P30">
+        <v>0.9999028405653037</v>
+      </c>
+      <c r="Q30">
+        <v>1.000004552349071</v>
+      </c>
+      <c r="R30">
+        <v>0.9999928001749021</v>
+      </c>
+      <c r="S30">
+        <v>0.9999166706448048</v>
+      </c>
+      <c r="T30">
+        <v>0.9999928001749021</v>
+      </c>
+      <c r="U30">
+        <v>0.9999806828321284</v>
+      </c>
+      <c r="V30">
+        <v>1.000019090144523</v>
+      </c>
+      <c r="W30">
+        <v>0.9999829246178602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9996825317701024</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000476182415749</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9998809563147099</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000095227772893</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000476182415749</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000309625580092</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9998809563147099</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.999823245268298</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000102319457922</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9996825317701024</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9996825317701024</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9996825317701024</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9998809563147099</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.00017856936523</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999916378863158</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000013223500187</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00015315272946</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000013223500187</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000035497489621</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999649043457172</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.00003138061181</v>
       </c>
     </row>
